--- a/2-Empirical-Evidence/raw_data/Florida.xlsx
+++ b/2-Empirical-Evidence/raw_data/Florida.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="307">
   <si>
     <t>Local Area Unemployment Statistics</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>1990 to 2020</t>
+    <t>1990 to 2024</t>
   </si>
   <si>
     <t>Series ID</t>
@@ -148,6 +148,22 @@
   <si>
     <t>Annual
 2020</t>
+  </si>
+  <si>
+    <t>Annual
+2021</t>
+  </si>
+  <si>
+    <t>Annual
+2022</t>
+  </si>
+  <si>
+    <t>Annual
+2023</t>
+  </si>
+  <si>
+    <t>Annual
+2024</t>
   </si>
   <si>
     <t>LAUCN120010000000003</t>
@@ -1342,10 +1358,22 @@
       <c r="AF4" t="s" s="3">
         <v>34</v>
       </c>
+      <c r="AG4" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="AH4" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="s" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n" s="10">
         <v>3.7</v>
@@ -1440,10 +1468,20 @@
       <c r="AF5" t="n" s="10">
         <v>5.7</v>
       </c>
+      <c r="AG5" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AH5" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI5" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n" s="8">
         <v>3478.0</v>
@@ -1538,10 +1576,20 @@
       <c r="AF6" t="n" s="8">
         <v>7626.0</v>
       </c>
+      <c r="AG6" t="n" s="8">
+        <v>5290.0</v>
+      </c>
+      <c r="AH6" t="n" s="8">
+        <v>4087.0</v>
+      </c>
+      <c r="AI6" t="n" s="8">
+        <v>4440.0</v>
+      </c>
+      <c r="AJ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n" s="8">
         <v>90959.0</v>
@@ -1636,10 +1684,20 @@
       <c r="AF7" t="n" s="8">
         <v>126615.0</v>
       </c>
+      <c r="AG7" t="n" s="8">
+        <v>132540.0</v>
+      </c>
+      <c r="AH7" t="n" s="8">
+        <v>136444.0</v>
+      </c>
+      <c r="AI7" t="n" s="8">
+        <v>139514.0</v>
+      </c>
+      <c r="AJ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" t="n" s="8">
         <v>94437.0</v>
@@ -1734,10 +1792,20 @@
       <c r="AF8" t="n" s="8">
         <v>134241.0</v>
       </c>
+      <c r="AG8" t="n" s="8">
+        <v>137830.0</v>
+      </c>
+      <c r="AH8" t="n" s="8">
+        <v>140531.0</v>
+      </c>
+      <c r="AI8" t="n" s="8">
+        <v>143954.0</v>
+      </c>
+      <c r="AJ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n" s="10">
         <v>7.5</v>
@@ -1832,10 +1900,20 @@
       <c r="AF9" t="n" s="10">
         <v>5.3</v>
       </c>
+      <c r="AG9" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AH9" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI9" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ9"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n" s="8">
         <v>604.0</v>
@@ -1930,10 +2008,20 @@
       <c r="AF10" t="n" s="8">
         <v>617.0</v>
       </c>
+      <c r="AG10" t="n" s="8">
+        <v>463.0</v>
+      </c>
+      <c r="AH10" t="n" s="8">
+        <v>359.0</v>
+      </c>
+      <c r="AI10" t="n" s="8">
+        <v>377.0</v>
+      </c>
+      <c r="AJ10"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" t="n" s="8">
         <v>7499.0</v>
@@ -2028,10 +2116,20 @@
       <c r="AF11" t="n" s="8">
         <v>11017.0</v>
       </c>
+      <c r="AG11" t="n" s="8">
+        <v>11637.0</v>
+      </c>
+      <c r="AH11" t="n" s="8">
+        <v>12186.0</v>
+      </c>
+      <c r="AI11" t="n" s="8">
+        <v>12485.0</v>
+      </c>
+      <c r="AJ11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="n" s="8">
         <v>8103.0</v>
@@ -2126,10 +2224,20 @@
       <c r="AF12" t="n" s="8">
         <v>11634.0</v>
       </c>
+      <c r="AG12" t="n" s="8">
+        <v>12100.0</v>
+      </c>
+      <c r="AH12" t="n" s="8">
+        <v>12545.0</v>
+      </c>
+      <c r="AI12" t="n" s="8">
+        <v>12862.0</v>
+      </c>
+      <c r="AJ12"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n" s="10">
         <v>9.3</v>
@@ -2224,10 +2332,20 @@
       <c r="AF13" t="n" s="10">
         <v>6.3</v>
       </c>
+      <c r="AG13" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AH13" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI13" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ13"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14" t="n" s="8">
         <v>5737.0</v>
@@ -2322,10 +2440,20 @@
       <c r="AF14" t="n" s="8">
         <v>5188.0</v>
       </c>
+      <c r="AG14" t="n" s="8">
+        <v>3404.0</v>
+      </c>
+      <c r="AH14" t="n" s="8">
+        <v>2430.0</v>
+      </c>
+      <c r="AI14" t="n" s="8">
+        <v>2485.0</v>
+      </c>
+      <c r="AJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" t="n" s="8">
         <v>55966.0</v>
@@ -2420,10 +2548,20 @@
       <c r="AF15" t="n" s="8">
         <v>77333.0</v>
       </c>
+      <c r="AG15" t="n" s="8">
+        <v>82138.0</v>
+      </c>
+      <c r="AH15" t="n" s="8">
+        <v>84437.0</v>
+      </c>
+      <c r="AI15" t="n" s="8">
+        <v>86818.0</v>
+      </c>
+      <c r="AJ15"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n" s="8">
         <v>61703.0</v>
@@ -2518,10 +2656,20 @@
       <c r="AF16" t="n" s="8">
         <v>82521.0</v>
       </c>
+      <c r="AG16" t="n" s="8">
+        <v>85542.0</v>
+      </c>
+      <c r="AH16" t="n" s="8">
+        <v>86867.0</v>
+      </c>
+      <c r="AI16" t="n" s="8">
+        <v>89303.0</v>
+      </c>
+      <c r="AJ16"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" t="n" s="10">
         <v>4.6</v>
@@ -2616,10 +2764,20 @@
       <c r="AF17" t="n" s="10">
         <v>6.3</v>
       </c>
+      <c r="AG17" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH17" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI17" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18" t="n" s="8">
         <v>430.0</v>
@@ -2714,10 +2872,20 @@
       <c r="AF18" t="n" s="8">
         <v>676.0</v>
       </c>
+      <c r="AG18" t="n" s="8">
+        <v>461.0</v>
+      </c>
+      <c r="AH18" t="n" s="8">
+        <v>357.0</v>
+      </c>
+      <c r="AI18" t="n" s="8">
+        <v>341.0</v>
+      </c>
+      <c r="AJ18"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="n" s="8">
         <v>8861.0</v>
@@ -2812,10 +2980,20 @@
       <c r="AF19" t="n" s="8">
         <v>10016.0</v>
       </c>
+      <c r="AG19" t="n" s="8">
+        <v>10301.0</v>
+      </c>
+      <c r="AH19" t="n" s="8">
+        <v>10597.0</v>
+      </c>
+      <c r="AI19" t="n" s="8">
+        <v>10611.0</v>
+      </c>
+      <c r="AJ19"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" t="n" s="8">
         <v>9291.0</v>
@@ -2910,10 +3088,20 @@
       <c r="AF20" t="n" s="8">
         <v>10692.0</v>
       </c>
+      <c r="AG20" t="n" s="8">
+        <v>10762.0</v>
+      </c>
+      <c r="AH20" t="n" s="8">
+        <v>10954.0</v>
+      </c>
+      <c r="AI20" t="n" s="8">
+        <v>10952.0</v>
+      </c>
+      <c r="AJ20"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n" s="10">
         <v>5.6</v>
@@ -3008,10 +3196,20 @@
       <c r="AF21" t="n" s="10">
         <v>7.0</v>
       </c>
+      <c r="AG21" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AH21" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI21" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ21"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" t="n" s="8">
         <v>11455.0</v>
@@ -3106,10 +3304,20 @@
       <c r="AF22" t="n" s="8">
         <v>19676.0</v>
       </c>
+      <c r="AG22" t="n" s="8">
+        <v>11991.0</v>
+      </c>
+      <c r="AH22" t="n" s="8">
+        <v>8699.0</v>
+      </c>
+      <c r="AI22" t="n" s="8">
+        <v>9126.0</v>
+      </c>
+      <c r="AJ22"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B23" t="n" s="8">
         <v>194813.0</v>
@@ -3204,10 +3412,20 @@
       <c r="AF23" t="n" s="8">
         <v>261234.0</v>
       </c>
+      <c r="AG23" t="n" s="8">
+        <v>277025.0</v>
+      </c>
+      <c r="AH23" t="n" s="8">
+        <v>287747.0</v>
+      </c>
+      <c r="AI23" t="n" s="8">
+        <v>296517.0</v>
+      </c>
+      <c r="AJ23"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="7">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B24" t="n" s="8">
         <v>206268.0</v>
@@ -3302,10 +3520,20 @@
       <c r="AF24" t="n" s="8">
         <v>280910.0</v>
       </c>
+      <c r="AG24" t="n" s="8">
+        <v>289016.0</v>
+      </c>
+      <c r="AH24" t="n" s="8">
+        <v>296446.0</v>
+      </c>
+      <c r="AI24" t="n" s="8">
+        <v>305643.0</v>
+      </c>
+      <c r="AJ24"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B25" t="n" s="10">
         <v>5.9</v>
@@ -3400,10 +3628,20 @@
       <c r="AF25" t="n" s="10">
         <v>9.4</v>
       </c>
+      <c r="AG25" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AH25" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI25" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ25"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B26" t="n" s="8">
         <v>39655.0</v>
@@ -3498,10 +3736,20 @@
       <c r="AF26" t="n" s="8">
         <v>95361.0</v>
       </c>
+      <c r="AG26" t="n" s="8">
+        <v>50928.0</v>
+      </c>
+      <c r="AH26" t="n" s="8">
+        <v>31397.0</v>
+      </c>
+      <c r="AI26" t="n" s="8">
+        <v>31274.0</v>
+      </c>
+      <c r="AJ26"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B27" t="n" s="8">
         <v>631046.0</v>
@@ -3596,10 +3844,20 @@
       <c r="AF27" t="n" s="8">
         <v>922908.0</v>
       </c>
+      <c r="AG27" t="n" s="8">
+        <v>978952.0</v>
+      </c>
+      <c r="AH27" t="n" s="8">
+        <v>1028099.0</v>
+      </c>
+      <c r="AI27" t="n" s="8">
+        <v>1054288.0</v>
+      </c>
+      <c r="AJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B28" t="n" s="8">
         <v>670701.0</v>
@@ -3694,10 +3952,20 @@
       <c r="AF28" t="n" s="8">
         <v>1018269.0</v>
       </c>
+      <c r="AG28" t="n" s="8">
+        <v>1029880.0</v>
+      </c>
+      <c r="AH28" t="n" s="8">
+        <v>1059496.0</v>
+      </c>
+      <c r="AI28" t="n" s="8">
+        <v>1085562.0</v>
+      </c>
+      <c r="AJ28"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="7">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B29" t="n" s="10">
         <v>7.5</v>
@@ -3792,10 +4060,20 @@
       <c r="AF29" t="n" s="10">
         <v>5.4</v>
       </c>
+      <c r="AG29" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AH29" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI29" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ29"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="7">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B30" t="n" s="8">
         <v>337.0</v>
@@ -3890,10 +4168,20 @@
       <c r="AF30" t="n" s="8">
         <v>257.0</v>
       </c>
+      <c r="AG30" t="n" s="8">
+        <v>225.0</v>
+      </c>
+      <c r="AH30" t="n" s="8">
+        <v>163.0</v>
+      </c>
+      <c r="AI30" t="n" s="8">
+        <v>166.0</v>
+      </c>
+      <c r="AJ30"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="7">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B31" t="n" s="8">
         <v>4176.0</v>
@@ -3988,10 +4276,20 @@
       <c r="AF31" t="n" s="8">
         <v>4478.0</v>
       </c>
+      <c r="AG31" t="n" s="8">
+        <v>4598.0</v>
+      </c>
+      <c r="AH31" t="n" s="8">
+        <v>4640.0</v>
+      </c>
+      <c r="AI31" t="n" s="8">
+        <v>4845.0</v>
+      </c>
+      <c r="AJ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="7">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B32" t="n" s="8">
         <v>4513.0</v>
@@ -4086,10 +4384,20 @@
       <c r="AF32" t="n" s="8">
         <v>4735.0</v>
       </c>
+      <c r="AG32" t="n" s="8">
+        <v>4823.0</v>
+      </c>
+      <c r="AH32" t="n" s="8">
+        <v>4803.0</v>
+      </c>
+      <c r="AI32" t="n" s="8">
+        <v>5011.0</v>
+      </c>
+      <c r="AJ32"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33" t="n" s="10">
         <v>4.9</v>
@@ -4184,10 +4492,20 @@
       <c r="AF33" t="n" s="10">
         <v>7.7</v>
       </c>
+      <c r="AG33" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH33" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI33" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ33"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n" s="8">
         <v>2054.0</v>
@@ -4282,10 +4600,20 @@
       <c r="AF34" t="n" s="8">
         <v>5475.0</v>
       </c>
+      <c r="AG34" t="n" s="8">
+        <v>3289.0</v>
+      </c>
+      <c r="AH34" t="n" s="8">
+        <v>2715.0</v>
+      </c>
+      <c r="AI34" t="n" s="8">
+        <v>2722.0</v>
+      </c>
+      <c r="AJ34"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B35" t="n" s="8">
         <v>39806.0</v>
@@ -4380,10 +4708,20 @@
       <c r="AF35" t="n" s="8">
         <v>65747.0</v>
       </c>
+      <c r="AG35" t="n" s="8">
+        <v>69982.0</v>
+      </c>
+      <c r="AH35" t="n" s="8">
+        <v>73427.0</v>
+      </c>
+      <c r="AI35" t="n" s="8">
+        <v>75829.0</v>
+      </c>
+      <c r="AJ35"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B36" t="n" s="8">
         <v>41860.0</v>
@@ -4478,10 +4816,20 @@
       <c r="AF36" t="n" s="8">
         <v>71222.0</v>
       </c>
+      <c r="AG36" t="n" s="8">
+        <v>73271.0</v>
+      </c>
+      <c r="AH36" t="n" s="8">
+        <v>76142.0</v>
+      </c>
+      <c r="AI36" t="n" s="8">
+        <v>78551.0</v>
+      </c>
+      <c r="AJ36"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B37" t="n" s="10">
         <v>8.4</v>
@@ -4576,10 +4924,20 @@
       <c r="AF37" t="n" s="10">
         <v>8.9</v>
       </c>
+      <c r="AG37" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AH37" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AI37" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AJ37"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B38" t="n" s="8">
         <v>2790.0</v>
@@ -4674,10 +5032,20 @@
       <c r="AF38" t="n" s="8">
         <v>4124.0</v>
       </c>
+      <c r="AG38" t="n" s="8">
+        <v>2754.0</v>
+      </c>
+      <c r="AH38" t="n" s="8">
+        <v>2101.0</v>
+      </c>
+      <c r="AI38" t="n" s="8">
+        <v>2245.0</v>
+      </c>
+      <c r="AJ38"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B39" t="n" s="8">
         <v>30508.0</v>
@@ -4772,10 +5140,20 @@
       <c r="AF39" t="n" s="8">
         <v>42339.0</v>
       </c>
+      <c r="AG39" t="n" s="8">
+        <v>44780.0</v>
+      </c>
+      <c r="AH39" t="n" s="8">
+        <v>46969.0</v>
+      </c>
+      <c r="AI39" t="n" s="8">
+        <v>47735.0</v>
+      </c>
+      <c r="AJ39"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="7">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B40" t="n" s="8">
         <v>33298.0</v>
@@ -4870,10 +5248,20 @@
       <c r="AF40" t="n" s="8">
         <v>46463.0</v>
       </c>
+      <c r="AG40" t="n" s="8">
+        <v>47534.0</v>
+      </c>
+      <c r="AH40" t="n" s="8">
+        <v>49070.0</v>
+      </c>
+      <c r="AI40" t="n" s="8">
+        <v>49980.0</v>
+      </c>
+      <c r="AJ40"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B41" t="n" s="10">
         <v>4.4</v>
@@ -4968,10 +5356,20 @@
       <c r="AF41" t="n" s="10">
         <v>5.7</v>
       </c>
+      <c r="AG41" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AH41" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AI41" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ41"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="7">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B42" t="n" s="8">
         <v>2413.0</v>
@@ -5066,10 +5464,20 @@
       <c r="AF42" t="n" s="8">
         <v>5908.0</v>
       </c>
+      <c r="AG42" t="n" s="8">
+        <v>3920.0</v>
+      </c>
+      <c r="AH42" t="n" s="8">
+        <v>3071.0</v>
+      </c>
+      <c r="AI42" t="n" s="8">
+        <v>3329.0</v>
+      </c>
+      <c r="AJ42"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B43" t="n" s="8">
         <v>51884.0</v>
@@ -5164,10 +5572,20 @@
       <c r="AF43" t="n" s="8">
         <v>98484.0</v>
       </c>
+      <c r="AG43" t="n" s="8">
+        <v>104188.0</v>
+      </c>
+      <c r="AH43" t="n" s="8">
+        <v>109041.0</v>
+      </c>
+      <c r="AI43" t="n" s="8">
+        <v>111715.0</v>
+      </c>
+      <c r="AJ43"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B44" t="n" s="8">
         <v>54297.0</v>
@@ -5262,10 +5680,20 @@
       <c r="AF44" t="n" s="8">
         <v>104392.0</v>
       </c>
+      <c r="AG44" t="n" s="8">
+        <v>108108.0</v>
+      </c>
+      <c r="AH44" t="n" s="8">
+        <v>112112.0</v>
+      </c>
+      <c r="AI44" t="n" s="8">
+        <v>115044.0</v>
+      </c>
+      <c r="AJ44"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B45" t="n" s="10">
         <v>5.6</v>
@@ -5360,10 +5788,20 @@
       <c r="AF45" t="n" s="10">
         <v>7.3</v>
       </c>
+      <c r="AG45" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AH45" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI45" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ45"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="7">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B46" t="n" s="8">
         <v>4131.0</v>
@@ -5458,10 +5896,20 @@
       <c r="AF46" t="n" s="8">
         <v>12845.0</v>
       </c>
+      <c r="AG46" t="n" s="8">
+        <v>6824.0</v>
+      </c>
+      <c r="AH46" t="n" s="8">
+        <v>5424.0</v>
+      </c>
+      <c r="AI46" t="n" s="8">
+        <v>5540.0</v>
+      </c>
+      <c r="AJ46"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="7">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B47" t="n" s="8">
         <v>69576.0</v>
@@ -5556,10 +6004,20 @@
       <c r="AF47" t="n" s="8">
         <v>163099.0</v>
       </c>
+      <c r="AG47" t="n" s="8">
+        <v>173957.0</v>
+      </c>
+      <c r="AH47" t="n" s="8">
+        <v>181535.0</v>
+      </c>
+      <c r="AI47" t="n" s="8">
+        <v>187334.0</v>
+      </c>
+      <c r="AJ47"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="7">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B48" t="n" s="8">
         <v>73707.0</v>
@@ -5654,10 +6112,20 @@
       <c r="AF48" t="n" s="8">
         <v>175944.0</v>
       </c>
+      <c r="AG48" t="n" s="8">
+        <v>180781.0</v>
+      </c>
+      <c r="AH48" t="n" s="8">
+        <v>186959.0</v>
+      </c>
+      <c r="AI48" t="n" s="8">
+        <v>192874.0</v>
+      </c>
+      <c r="AJ48"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="7">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B49" t="n" s="10">
         <v>8.7</v>
@@ -5752,10 +6220,20 @@
       <c r="AF49" t="n" s="10">
         <v>6.3</v>
       </c>
+      <c r="AG49" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH49" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI49" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ49"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="7">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B50" t="n" s="8">
         <v>1782.0</v>
@@ -5850,10 +6328,20 @@
       <c r="AF50" t="n" s="8">
         <v>1845.0</v>
       </c>
+      <c r="AG50" t="n" s="8">
+        <v>1358.0</v>
+      </c>
+      <c r="AH50" t="n" s="8">
+        <v>978.0</v>
+      </c>
+      <c r="AI50" t="n" s="8">
+        <v>1013.0</v>
+      </c>
+      <c r="AJ50"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="7">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B51" t="n" s="8">
         <v>18600.0</v>
@@ -5948,10 +6436,20 @@
       <c r="AF51" t="n" s="8">
         <v>27530.0</v>
       </c>
+      <c r="AG51" t="n" s="8">
+        <v>27932.0</v>
+      </c>
+      <c r="AH51" t="n" s="8">
+        <v>28388.0</v>
+      </c>
+      <c r="AI51" t="n" s="8">
+        <v>28921.0</v>
+      </c>
+      <c r="AJ51"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B52" t="n" s="8">
         <v>20382.0</v>
@@ -6046,10 +6544,20 @@
       <c r="AF52" t="n" s="8">
         <v>29375.0</v>
       </c>
+      <c r="AG52" t="n" s="8">
+        <v>29290.0</v>
+      </c>
+      <c r="AH52" t="n" s="8">
+        <v>29366.0</v>
+      </c>
+      <c r="AI52" t="n" s="8">
+        <v>29934.0</v>
+      </c>
+      <c r="AJ52"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="7">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B53" t="n" s="10">
         <v>7.3</v>
@@ -6144,10 +6652,20 @@
       <c r="AF53" t="n" s="10">
         <v>5.4</v>
       </c>
+      <c r="AG53" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH53" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI53" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AJ53"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="7">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B54" t="n" s="8">
         <v>718.0</v>
@@ -6242,10 +6760,20 @@
       <c r="AF54" t="n" s="8">
         <v>778.0</v>
       </c>
+      <c r="AG54" t="n" s="8">
+        <v>579.0</v>
+      </c>
+      <c r="AH54" t="n" s="8">
+        <v>467.0</v>
+      </c>
+      <c r="AI54" t="n" s="8">
+        <v>476.0</v>
+      </c>
+      <c r="AJ54"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="7">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B55" t="n" s="8">
         <v>9061.0</v>
@@ -6340,10 +6868,20 @@
       <c r="AF55" t="n" s="8">
         <v>13545.0</v>
       </c>
+      <c r="AG55" t="n" s="8">
+        <v>13013.0</v>
+      </c>
+      <c r="AH55" t="n" s="8">
+        <v>12608.0</v>
+      </c>
+      <c r="AI55" t="n" s="8">
+        <v>12820.0</v>
+      </c>
+      <c r="AJ55"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="7">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B56" t="n" s="8">
         <v>9779.0</v>
@@ -6438,10 +6976,20 @@
       <c r="AF56" t="n" s="8">
         <v>14323.0</v>
       </c>
+      <c r="AG56" t="n" s="8">
+        <v>13592.0</v>
+      </c>
+      <c r="AH56" t="n" s="8">
+        <v>13075.0</v>
+      </c>
+      <c r="AI56" t="n" s="8">
+        <v>13296.0</v>
+      </c>
+      <c r="AJ56"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="7">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B57" t="n" s="10">
         <v>7.6</v>
@@ -6536,10 +7084,20 @@
       <c r="AF57" t="n" s="10">
         <v>5.8</v>
       </c>
+      <c r="AG57" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH57" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI57" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AJ57"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="7">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B58" t="n" s="8">
         <v>291.0</v>
@@ -6634,10 +7192,20 @@
       <c r="AF58" t="n" s="8">
         <v>340.0</v>
       </c>
+      <c r="AG58" t="n" s="8">
+        <v>264.0</v>
+      </c>
+      <c r="AH58" t="n" s="8">
+        <v>197.0</v>
+      </c>
+      <c r="AI58" t="n" s="8">
+        <v>218.0</v>
+      </c>
+      <c r="AJ58"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="7">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B59" t="n" s="8">
         <v>3524.0</v>
@@ -6732,10 +7300,20 @@
       <c r="AF59" t="n" s="8">
         <v>5494.0</v>
       </c>
+      <c r="AG59" t="n" s="8">
+        <v>5561.0</v>
+      </c>
+      <c r="AH59" t="n" s="8">
+        <v>5636.0</v>
+      </c>
+      <c r="AI59" t="n" s="8">
+        <v>5785.0</v>
+      </c>
+      <c r="AJ59"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="7">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B60" t="n" s="8">
         <v>3815.0</v>
@@ -6830,10 +7408,20 @@
       <c r="AF60" t="n" s="8">
         <v>5834.0</v>
       </c>
+      <c r="AG60" t="n" s="8">
+        <v>5825.0</v>
+      </c>
+      <c r="AH60" t="n" s="8">
+        <v>5833.0</v>
+      </c>
+      <c r="AI60" t="n" s="8">
+        <v>6003.0</v>
+      </c>
+      <c r="AJ60"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="7">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B61" t="n" s="10">
         <v>5.4</v>
@@ -6928,10 +7516,20 @@
       <c r="AF61" t="n" s="10">
         <v>7.2</v>
       </c>
+      <c r="AG61" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH61" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI61" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ61"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B62" t="n" s="8">
         <v>19244.0</v>
@@ -7026,10 +7624,20 @@
       <c r="AF62" t="n" s="8">
         <v>34593.0</v>
       </c>
+      <c r="AG62" t="n" s="8">
+        <v>22393.0</v>
+      </c>
+      <c r="AH62" t="n" s="8">
+        <v>16003.0</v>
+      </c>
+      <c r="AI62" t="n" s="8">
+        <v>16368.0</v>
+      </c>
+      <c r="AJ62"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="7">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B63" t="n" s="8">
         <v>335066.0</v>
@@ -7124,10 +7732,20 @@
       <c r="AF63" t="n" s="8">
         <v>444744.0</v>
       </c>
+      <c r="AG63" t="n" s="8">
+        <v>470041.0</v>
+      </c>
+      <c r="AH63" t="n" s="8">
+        <v>492202.0</v>
+      </c>
+      <c r="AI63" t="n" s="8">
+        <v>503763.0</v>
+      </c>
+      <c r="AJ63"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="7">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B64" t="n" s="8">
         <v>354310.0</v>
@@ -7222,10 +7840,20 @@
       <c r="AF64" t="n" s="8">
         <v>479337.0</v>
       </c>
+      <c r="AG64" t="n" s="8">
+        <v>492434.0</v>
+      </c>
+      <c r="AH64" t="n" s="8">
+        <v>508205.0</v>
+      </c>
+      <c r="AI64" t="n" s="8">
+        <v>520131.0</v>
+      </c>
+      <c r="AJ64"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="7">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B65" t="n" s="10">
         <v>5.9</v>
@@ -7320,10 +7948,20 @@
       <c r="AF65" t="n" s="10">
         <v>7.1</v>
       </c>
+      <c r="AG65" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH65" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI65" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ65"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="7">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B66" t="n" s="8">
         <v>7248.0</v>
@@ -7418,10 +8056,20 @@
       <c r="AF66" t="n" s="8">
         <v>10243.0</v>
       </c>
+      <c r="AG66" t="n" s="8">
+        <v>6731.0</v>
+      </c>
+      <c r="AH66" t="n" s="8">
+        <v>4658.0</v>
+      </c>
+      <c r="AI66" t="n" s="8">
+        <v>4715.0</v>
+      </c>
+      <c r="AJ66"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="7">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B67" t="n" s="8">
         <v>114861.0</v>
@@ -7516,10 +8164,20 @@
       <c r="AF67" t="n" s="8">
         <v>133076.0</v>
       </c>
+      <c r="AG67" t="n" s="8">
+        <v>138590.0</v>
+      </c>
+      <c r="AH67" t="n" s="8">
+        <v>144613.0</v>
+      </c>
+      <c r="AI67" t="n" s="8">
+        <v>148668.0</v>
+      </c>
+      <c r="AJ67"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="7">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B68" t="n" s="8">
         <v>122109.0</v>
@@ -7614,10 +8272,20 @@
       <c r="AF68" t="n" s="8">
         <v>143319.0</v>
       </c>
+      <c r="AG68" t="n" s="8">
+        <v>145321.0</v>
+      </c>
+      <c r="AH68" t="n" s="8">
+        <v>149271.0</v>
+      </c>
+      <c r="AI68" t="n" s="8">
+        <v>153383.0</v>
+      </c>
+      <c r="AJ68"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="7">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B69" t="n" s="10">
         <v>6.4</v>
@@ -7712,10 +8380,20 @@
       <c r="AF69" t="n" s="10">
         <v>7.9</v>
       </c>
+      <c r="AG69" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH69" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI69" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ69"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="7">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B70" t="n" s="8">
         <v>765.0</v>
@@ -7810,10 +8488,20 @@
       <c r="AF70" t="n" s="8">
         <v>3728.0</v>
       </c>
+      <c r="AG70" t="n" s="8">
+        <v>2300.0</v>
+      </c>
+      <c r="AH70" t="n" s="8">
+        <v>1753.0</v>
+      </c>
+      <c r="AI70" t="n" s="8">
+        <v>1913.0</v>
+      </c>
+      <c r="AJ70"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="7">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B71" t="n" s="8">
         <v>11097.0</v>
@@ -7908,10 +8596,20 @@
       <c r="AF71" t="n" s="8">
         <v>43252.0</v>
       </c>
+      <c r="AG71" t="n" s="8">
+        <v>46092.0</v>
+      </c>
+      <c r="AH71" t="n" s="8">
+        <v>48188.0</v>
+      </c>
+      <c r="AI71" t="n" s="8">
+        <v>49590.0</v>
+      </c>
+      <c r="AJ71"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="7">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B72" t="n" s="8">
         <v>11862.0</v>
@@ -8006,10 +8704,20 @@
       <c r="AF72" t="n" s="8">
         <v>46980.0</v>
       </c>
+      <c r="AG72" t="n" s="8">
+        <v>48392.0</v>
+      </c>
+      <c r="AH72" t="n" s="8">
+        <v>49941.0</v>
+      </c>
+      <c r="AI72" t="n" s="8">
+        <v>51503.0</v>
+      </c>
+      <c r="AJ72"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="7">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B73" t="n" s="10">
         <v>5.5</v>
@@ -8104,10 +8812,20 @@
       <c r="AF73" t="n" s="10">
         <v>5.7</v>
       </c>
+      <c r="AG73" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AH73" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI73" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ73"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="7">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B74" t="n" s="8">
         <v>216.0</v>
@@ -8202,10 +8920,20 @@
       <c r="AF74" t="n" s="8">
         <v>264.0</v>
       </c>
+      <c r="AG74" t="n" s="8">
+        <v>184.0</v>
+      </c>
+      <c r="AH74" t="n" s="8">
+        <v>137.0</v>
+      </c>
+      <c r="AI74" t="n" s="8">
+        <v>138.0</v>
+      </c>
+      <c r="AJ74"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="7">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B75" t="n" s="8">
         <v>3681.0</v>
@@ -8300,10 +9028,20 @@
       <c r="AF75" t="n" s="8">
         <v>4379.0</v>
       </c>
+      <c r="AG75" t="n" s="8">
+        <v>4517.0</v>
+      </c>
+      <c r="AH75" t="n" s="8">
+        <v>4583.0</v>
+      </c>
+      <c r="AI75" t="n" s="8">
+        <v>4669.0</v>
+      </c>
+      <c r="AJ75"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="7">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B76" t="n" s="8">
         <v>3897.0</v>
@@ -8398,10 +9136,20 @@
       <c r="AF76" t="n" s="8">
         <v>4643.0</v>
       </c>
+      <c r="AG76" t="n" s="8">
+        <v>4701.0</v>
+      </c>
+      <c r="AH76" t="n" s="8">
+        <v>4720.0</v>
+      </c>
+      <c r="AI76" t="n" s="8">
+        <v>4807.0</v>
+      </c>
+      <c r="AJ76"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="7">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B77" t="n" s="10">
         <v>5.1</v>
@@ -8496,10 +9244,20 @@
       <c r="AF77" t="n" s="10">
         <v>7.3</v>
       </c>
+      <c r="AG77" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AH77" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI77" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AJ77"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="7">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B78" t="n" s="8">
         <v>934.0</v>
@@ -8594,10 +9352,20 @@
       <c r="AF78" t="n" s="8">
         <v>1331.0</v>
       </c>
+      <c r="AG78" t="n" s="8">
+        <v>1052.0</v>
+      </c>
+      <c r="AH78" t="n" s="8">
+        <v>752.0</v>
+      </c>
+      <c r="AI78" t="n" s="8">
+        <v>722.0</v>
+      </c>
+      <c r="AJ78"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="7">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B79" t="n" s="8">
         <v>17236.0</v>
@@ -8692,10 +9460,20 @@
       <c r="AF79" t="n" s="8">
         <v>16836.0</v>
       </c>
+      <c r="AG79" t="n" s="8">
+        <v>17540.0</v>
+      </c>
+      <c r="AH79" t="n" s="8">
+        <v>17789.0</v>
+      </c>
+      <c r="AI79" t="n" s="8">
+        <v>17940.0</v>
+      </c>
+      <c r="AJ79"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="7">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B80" t="n" s="8">
         <v>18170.0</v>
@@ -8790,10 +9568,20 @@
       <c r="AF80" t="n" s="8">
         <v>18167.0</v>
       </c>
+      <c r="AG80" t="n" s="8">
+        <v>18592.0</v>
+      </c>
+      <c r="AH80" t="n" s="8">
+        <v>18541.0</v>
+      </c>
+      <c r="AI80" t="n" s="8">
+        <v>18662.0</v>
+      </c>
+      <c r="AJ80"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="7">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B81" t="n" s="10">
         <v>8.0</v>
@@ -8888,10 +9676,20 @@
       <c r="AF81" t="n" s="10">
         <v>5.2</v>
       </c>
+      <c r="AG81" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AH81" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI81" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ81"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="7">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B82" t="n" s="8">
         <v>324.0</v>
@@ -8986,10 +9784,20 @@
       <c r="AF82" t="n" s="8">
         <v>363.0</v>
       </c>
+      <c r="AG82" t="n" s="8">
+        <v>280.0</v>
+      </c>
+      <c r="AH82" t="n" s="8">
+        <v>231.0</v>
+      </c>
+      <c r="AI82" t="n" s="8">
+        <v>244.0</v>
+      </c>
+      <c r="AJ82"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="7">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B83" t="n" s="8">
         <v>3725.0</v>
@@ -9084,10 +9892,20 @@
       <c r="AF83" t="n" s="8">
         <v>6660.0</v>
       </c>
+      <c r="AG83" t="n" s="8">
+        <v>6976.0</v>
+      </c>
+      <c r="AH83" t="n" s="8">
+        <v>7078.0</v>
+      </c>
+      <c r="AI83" t="n" s="8">
+        <v>7228.0</v>
+      </c>
+      <c r="AJ83"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="7">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B84" t="n" s="8">
         <v>4049.0</v>
@@ -9182,10 +10000,20 @@
       <c r="AF84" t="n" s="8">
         <v>7023.0</v>
       </c>
+      <c r="AG84" t="n" s="8">
+        <v>7256.0</v>
+      </c>
+      <c r="AH84" t="n" s="8">
+        <v>7309.0</v>
+      </c>
+      <c r="AI84" t="n" s="8">
+        <v>7472.0</v>
+      </c>
+      <c r="AJ84"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="7">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B85" t="n" s="10">
         <v>10.8</v>
@@ -9280,10 +10108,20 @@
       <c r="AF85" t="n" s="10">
         <v>6.1</v>
       </c>
+      <c r="AG85" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH85" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI85" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ85"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="7">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B86" t="n" s="8">
         <v>352.0</v>
@@ -9378,10 +10216,20 @@
       <c r="AF86" t="n" s="8">
         <v>307.0</v>
       </c>
+      <c r="AG86" t="n" s="8">
+        <v>217.0</v>
+      </c>
+      <c r="AH86" t="n" s="8">
+        <v>171.0</v>
+      </c>
+      <c r="AI86" t="n" s="8">
+        <v>195.0</v>
+      </c>
+      <c r="AJ86"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="7">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B87" t="n" s="8">
         <v>2899.0</v>
@@ -9476,10 +10324,20 @@
       <c r="AF87" t="n" s="8">
         <v>4754.0</v>
       </c>
+      <c r="AG87" t="n" s="8">
+        <v>4736.0</v>
+      </c>
+      <c r="AH87" t="n" s="8">
+        <v>5031.0</v>
+      </c>
+      <c r="AI87" t="n" s="8">
+        <v>4990.0</v>
+      </c>
+      <c r="AJ87"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="7">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B88" t="n" s="8">
         <v>3251.0</v>
@@ -9574,10 +10432,20 @@
       <c r="AF88" t="n" s="8">
         <v>5061.0</v>
       </c>
+      <c r="AG88" t="n" s="8">
+        <v>4953.0</v>
+      </c>
+      <c r="AH88" t="n" s="8">
+        <v>5202.0</v>
+      </c>
+      <c r="AI88" t="n" s="8">
+        <v>5185.0</v>
+      </c>
+      <c r="AJ88"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="7">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B89" t="n" s="10">
         <v>6.8</v>
@@ -9672,10 +10540,20 @@
       <c r="AF89" t="n" s="10">
         <v>6.1</v>
       </c>
+      <c r="AG89" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AH89" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI89" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AJ89"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="7">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B90" t="n" s="8">
         <v>361.0</v>
@@ -9770,10 +10648,20 @@
       <c r="AF90" t="n" s="8">
         <v>311.0</v>
       </c>
+      <c r="AG90" t="n" s="8">
+        <v>196.0</v>
+      </c>
+      <c r="AH90" t="n" s="8">
+        <v>151.0</v>
+      </c>
+      <c r="AI90" t="n" s="8">
+        <v>147.0</v>
+      </c>
+      <c r="AJ90"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="7">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B91" t="n" s="8">
         <v>4971.0</v>
@@ -9868,10 +10756,20 @@
       <c r="AF91" t="n" s="8">
         <v>4753.0</v>
       </c>
+      <c r="AG91" t="n" s="8">
+        <v>5062.0</v>
+      </c>
+      <c r="AH91" t="n" s="8">
+        <v>5200.0</v>
+      </c>
+      <c r="AI91" t="n" s="8">
+        <v>5338.0</v>
+      </c>
+      <c r="AJ91"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="7">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B92" t="n" s="8">
         <v>5332.0</v>
@@ -9966,10 +10864,20 @@
       <c r="AF92" t="n" s="8">
         <v>5064.0</v>
       </c>
+      <c r="AG92" t="n" s="8">
+        <v>5258.0</v>
+      </c>
+      <c r="AH92" t="n" s="8">
+        <v>5351.0</v>
+      </c>
+      <c r="AI92" t="n" s="8">
+        <v>5485.0</v>
+      </c>
+      <c r="AJ92"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="7">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B93" t="n" s="10">
         <v>8.2</v>
@@ -10064,10 +10972,20 @@
       <c r="AF93" t="n" s="10">
         <v>8.2</v>
       </c>
+      <c r="AG93" t="n" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="AH93" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AI93" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ93"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="7">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B94" t="n" s="8">
         <v>345.0</v>
@@ -10162,10 +11080,20 @@
       <c r="AF94" t="n" s="8">
         <v>344.0</v>
       </c>
+      <c r="AG94" t="n" s="8">
+        <v>255.0</v>
+      </c>
+      <c r="AH94" t="n" s="8">
+        <v>174.0</v>
+      </c>
+      <c r="AI94" t="n" s="8">
+        <v>183.0</v>
+      </c>
+      <c r="AJ94"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="7">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B95" t="n" s="8">
         <v>3876.0</v>
@@ -10260,10 +11188,20 @@
       <c r="AF95" t="n" s="8">
         <v>3855.0</v>
       </c>
+      <c r="AG95" t="n" s="8">
+        <v>3937.0</v>
+      </c>
+      <c r="AH95" t="n" s="8">
+        <v>3934.0</v>
+      </c>
+      <c r="AI95" t="n" s="8">
+        <v>4055.0</v>
+      </c>
+      <c r="AJ95"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="7">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B96" t="n" s="8">
         <v>4221.0</v>
@@ -10358,10 +11296,20 @@
       <c r="AF96" t="n" s="8">
         <v>4199.0</v>
       </c>
+      <c r="AG96" t="n" s="8">
+        <v>4192.0</v>
+      </c>
+      <c r="AH96" t="n" s="8">
+        <v>4108.0</v>
+      </c>
+      <c r="AI96" t="n" s="8">
+        <v>4238.0</v>
+      </c>
+      <c r="AJ96"/>
     </row>
     <row r="97">
       <c r="A97" t="s" s="7">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B97" t="n" s="10">
         <v>12.0</v>
@@ -10456,10 +11404,20 @@
       <c r="AF97" t="n" s="10">
         <v>6.9</v>
       </c>
+      <c r="AG97" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AH97" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AI97" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AJ97"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="7">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B98" t="n" s="8">
         <v>1117.0</v>
@@ -10554,10 +11512,20 @@
       <c r="AF98" t="n" s="8">
         <v>578.0</v>
       </c>
+      <c r="AG98" t="n" s="8">
+        <v>439.0</v>
+      </c>
+      <c r="AH98" t="n" s="8">
+        <v>351.0</v>
+      </c>
+      <c r="AI98" t="n" s="8">
+        <v>375.0</v>
+      </c>
+      <c r="AJ98"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="7">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B99" t="n" s="8">
         <v>8195.0</v>
@@ -10652,10 +11620,20 @@
       <c r="AF99" t="n" s="8">
         <v>7829.0</v>
       </c>
+      <c r="AG99" t="n" s="8">
+        <v>8395.0</v>
+      </c>
+      <c r="AH99" t="n" s="8">
+        <v>8321.0</v>
+      </c>
+      <c r="AI99" t="n" s="8">
+        <v>8709.0</v>
+      </c>
+      <c r="AJ99"/>
     </row>
     <row r="100">
       <c r="A100" t="s" s="7">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B100" t="n" s="8">
         <v>9312.0</v>
@@ -10750,10 +11728,20 @@
       <c r="AF100" t="n" s="8">
         <v>8407.0</v>
       </c>
+      <c r="AG100" t="n" s="8">
+        <v>8834.0</v>
+      </c>
+      <c r="AH100" t="n" s="8">
+        <v>8672.0</v>
+      </c>
+      <c r="AI100" t="n" s="8">
+        <v>9084.0</v>
+      </c>
+      <c r="AJ100"/>
     </row>
     <row r="101">
       <c r="A101" t="s" s="7">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B101" t="n" s="10">
         <v>13.6</v>
@@ -10848,10 +11836,20 @@
       <c r="AF101" t="n" s="10">
         <v>8.8</v>
       </c>
+      <c r="AG101" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AH101" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AI101" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AJ101"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="7">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B102" t="n" s="8">
         <v>1767.0</v>
@@ -10946,10 +11944,20 @@
       <c r="AF102" t="n" s="8">
         <v>1341.0</v>
       </c>
+      <c r="AG102" t="n" s="8">
+        <v>982.0</v>
+      </c>
+      <c r="AH102" t="n" s="8">
+        <v>757.0</v>
+      </c>
+      <c r="AI102" t="n" s="8">
+        <v>762.0</v>
+      </c>
+      <c r="AJ102"/>
     </row>
     <row r="103">
       <c r="A103" t="s" s="7">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B103" t="n" s="8">
         <v>11265.0</v>
@@ -11044,10 +12052,20 @@
       <c r="AF103" t="n" s="8">
         <v>13903.0</v>
       </c>
+      <c r="AG103" t="n" s="8">
+        <v>14325.0</v>
+      </c>
+      <c r="AH103" t="n" s="8">
+        <v>14732.0</v>
+      </c>
+      <c r="AI103" t="n" s="8">
+        <v>15124.0</v>
+      </c>
+      <c r="AJ103"/>
     </row>
     <row r="104">
       <c r="A104" t="s" s="7">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B104" t="n" s="8">
         <v>13032.0</v>
@@ -11142,10 +12160,20 @@
       <c r="AF104" t="n" s="8">
         <v>15244.0</v>
       </c>
+      <c r="AG104" t="n" s="8">
+        <v>15307.0</v>
+      </c>
+      <c r="AH104" t="n" s="8">
+        <v>15489.0</v>
+      </c>
+      <c r="AI104" t="n" s="8">
+        <v>15886.0</v>
+      </c>
+      <c r="AJ104"/>
     </row>
     <row r="105">
       <c r="A105" t="s" s="7">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B105" t="n" s="10">
         <v>7.5</v>
@@ -11240,10 +12268,20 @@
       <c r="AF105" t="n" s="10">
         <v>8.4</v>
       </c>
+      <c r="AG105" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AH105" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI105" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ105"/>
     </row>
     <row r="106">
       <c r="A106" t="s" s="7">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B106" t="n" s="8">
         <v>2735.0</v>
@@ -11338,10 +12376,20 @@
       <c r="AF106" t="n" s="8">
         <v>6057.0</v>
       </c>
+      <c r="AG106" t="n" s="8">
+        <v>3828.0</v>
+      </c>
+      <c r="AH106" t="n" s="8">
+        <v>2834.0</v>
+      </c>
+      <c r="AI106" t="n" s="8">
+        <v>3026.0</v>
+      </c>
+      <c r="AJ106"/>
     </row>
     <row r="107">
       <c r="A107" t="s" s="7">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B107" t="n" s="8">
         <v>33718.0</v>
@@ -11436,10 +12484,20 @@
       <c r="AF107" t="n" s="8">
         <v>65713.0</v>
       </c>
+      <c r="AG107" t="n" s="8">
+        <v>69825.0</v>
+      </c>
+      <c r="AH107" t="n" s="8">
+        <v>73603.0</v>
+      </c>
+      <c r="AI107" t="n" s="8">
+        <v>75758.0</v>
+      </c>
+      <c r="AJ107"/>
     </row>
     <row r="108">
       <c r="A108" t="s" s="7">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B108" t="n" s="8">
         <v>36453.0</v>
@@ -11534,10 +12592,20 @@
       <c r="AF108" t="n" s="8">
         <v>71770.0</v>
       </c>
+      <c r="AG108" t="n" s="8">
+        <v>73653.0</v>
+      </c>
+      <c r="AH108" t="n" s="8">
+        <v>76437.0</v>
+      </c>
+      <c r="AI108" t="n" s="8">
+        <v>78784.0</v>
+      </c>
+      <c r="AJ108"/>
     </row>
     <row r="109">
       <c r="A109" t="s" s="7">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B109" t="n" s="10">
         <v>9.2</v>
@@ -11632,10 +12700,20 @@
       <c r="AF109" t="n" s="10">
         <v>8.2</v>
       </c>
+      <c r="AG109" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="AH109" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AI109" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ109"/>
     </row>
     <row r="110">
       <c r="A110" t="s" s="7">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B110" t="n" s="8">
         <v>2386.0</v>
@@ -11730,10 +12808,20 @@
       <c r="AF110" t="n" s="8">
         <v>2820.0</v>
       </c>
+      <c r="AG110" t="n" s="8">
+        <v>2102.0</v>
+      </c>
+      <c r="AH110" t="n" s="8">
+        <v>1555.0</v>
+      </c>
+      <c r="AI110" t="n" s="8">
+        <v>1600.0</v>
+      </c>
+      <c r="AJ110"/>
     </row>
     <row r="111">
       <c r="A111" t="s" s="7">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B111" t="n" s="8">
         <v>23661.0</v>
@@ -11828,10 +12916,20 @@
       <c r="AF111" t="n" s="8">
         <v>31715.0</v>
       </c>
+      <c r="AG111" t="n" s="8">
+        <v>33044.0</v>
+      </c>
+      <c r="AH111" t="n" s="8">
+        <v>34756.0</v>
+      </c>
+      <c r="AI111" t="n" s="8">
+        <v>35836.0</v>
+      </c>
+      <c r="AJ111"/>
     </row>
     <row r="112">
       <c r="A112" t="s" s="7">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B112" t="n" s="8">
         <v>26047.0</v>
@@ -11926,10 +13024,20 @@
       <c r="AF112" t="n" s="8">
         <v>34535.0</v>
       </c>
+      <c r="AG112" t="n" s="8">
+        <v>35146.0</v>
+      </c>
+      <c r="AH112" t="n" s="8">
+        <v>36311.0</v>
+      </c>
+      <c r="AI112" t="n" s="8">
+        <v>37436.0</v>
+      </c>
+      <c r="AJ112"/>
     </row>
     <row r="113">
       <c r="A113" t="s" s="7">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B113" t="n" s="10">
         <v>5.0</v>
@@ -12024,10 +13132,20 @@
       <c r="AF113" t="n" s="10">
         <v>7.6</v>
       </c>
+      <c r="AG113" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH113" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI113" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ113"/>
     </row>
     <row r="114">
       <c r="A114" t="s" s="7">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B114" t="n" s="8">
         <v>22699.0</v>
@@ -12122,10 +13240,20 @@
       <c r="AF114" t="n" s="8">
         <v>56865.0</v>
       </c>
+      <c r="AG114" t="n" s="8">
+        <v>33367.0</v>
+      </c>
+      <c r="AH114" t="n" s="8">
+        <v>22954.0</v>
+      </c>
+      <c r="AI114" t="n" s="8">
+        <v>24187.0</v>
+      </c>
+      <c r="AJ114"/>
     </row>
     <row r="115">
       <c r="A115" t="s" s="7">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B115" t="n" s="8">
         <v>434635.0</v>
@@ -12220,10 +13348,20 @@
       <c r="AF115" t="n" s="8">
         <v>695452.0</v>
       </c>
+      <c r="AG115" t="n" s="8">
+        <v>737239.0</v>
+      </c>
+      <c r="AH115" t="n" s="8">
+        <v>777996.0</v>
+      </c>
+      <c r="AI115" t="n" s="8">
+        <v>800135.0</v>
+      </c>
+      <c r="AJ115"/>
     </row>
     <row r="116">
       <c r="A116" t="s" s="7">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B116" t="n" s="8">
         <v>457334.0</v>
@@ -12318,10 +13456,20 @@
       <c r="AF116" t="n" s="8">
         <v>752317.0</v>
       </c>
+      <c r="AG116" t="n" s="8">
+        <v>770606.0</v>
+      </c>
+      <c r="AH116" t="n" s="8">
+        <v>800950.0</v>
+      </c>
+      <c r="AI116" t="n" s="8">
+        <v>824322.0</v>
+      </c>
+      <c r="AJ116"/>
     </row>
     <row r="117">
       <c r="A117" t="s" s="7">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B117" t="n" s="10">
         <v>7.1</v>
@@ -12416,10 +13564,20 @@
       <c r="AF117" t="n" s="10">
         <v>5.8</v>
       </c>
+      <c r="AG117" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AH117" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI117" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ117"/>
     </row>
     <row r="118">
       <c r="A118" t="s" s="7">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B118" t="n" s="8">
         <v>480.0</v>
@@ -12514,10 +13672,20 @@
       <c r="AF118" t="n" s="8">
         <v>396.0</v>
       </c>
+      <c r="AG118" t="n" s="8">
+        <v>292.0</v>
+      </c>
+      <c r="AH118" t="n" s="8">
+        <v>222.0</v>
+      </c>
+      <c r="AI118" t="n" s="8">
+        <v>231.0</v>
+      </c>
+      <c r="AJ118"/>
     </row>
     <row r="119">
       <c r="A119" t="s" s="7">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B119" t="n" s="8">
         <v>6316.0</v>
@@ -12612,10 +13780,20 @@
       <c r="AF119" t="n" s="8">
         <v>6405.0</v>
       </c>
+      <c r="AG119" t="n" s="8">
+        <v>6615.0</v>
+      </c>
+      <c r="AH119" t="n" s="8">
+        <v>6736.0</v>
+      </c>
+      <c r="AI119" t="n" s="8">
+        <v>6947.0</v>
+      </c>
+      <c r="AJ119"/>
     </row>
     <row r="120">
       <c r="A120" t="s" s="7">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B120" t="n" s="8">
         <v>6796.0</v>
@@ -12710,10 +13888,20 @@
       <c r="AF120" t="n" s="8">
         <v>6801.0</v>
       </c>
+      <c r="AG120" t="n" s="8">
+        <v>6907.0</v>
+      </c>
+      <c r="AH120" t="n" s="8">
+        <v>6958.0</v>
+      </c>
+      <c r="AI120" t="n" s="8">
+        <v>7178.0</v>
+      </c>
+      <c r="AJ120"/>
     </row>
     <row r="121">
       <c r="A121" t="s" s="7">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B121" t="n" s="10">
         <v>11.7</v>
@@ -12808,10 +13996,20 @@
       <c r="AF121" t="n" s="10">
         <v>7.8</v>
       </c>
+      <c r="AG121" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH121" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI121" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ121"/>
     </row>
     <row r="122">
       <c r="A122" t="s" s="7">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B122" t="n" s="8">
         <v>4850.0</v>
@@ -12906,10 +14104,20 @@
       <c r="AF122" t="n" s="8">
         <v>4989.0</v>
       </c>
+      <c r="AG122" t="n" s="8">
+        <v>3153.0</v>
+      </c>
+      <c r="AH122" t="n" s="8">
+        <v>2383.0</v>
+      </c>
+      <c r="AI122" t="n" s="8">
+        <v>2460.0</v>
+      </c>
+      <c r="AJ122"/>
     </row>
     <row r="123">
       <c r="A123" t="s" s="7">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B123" t="n" s="8">
         <v>36636.0</v>
@@ -13004,10 +14212,20 @@
       <c r="AF123" t="n" s="8">
         <v>59012.0</v>
       </c>
+      <c r="AG123" t="n" s="8">
+        <v>62328.0</v>
+      </c>
+      <c r="AH123" t="n" s="8">
+        <v>65703.0</v>
+      </c>
+      <c r="AI123" t="n" s="8">
+        <v>67295.0</v>
+      </c>
+      <c r="AJ123"/>
     </row>
     <row r="124">
       <c r="A124" t="s" s="7">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B124" t="n" s="8">
         <v>41486.0</v>
@@ -13102,10 +14320,20 @@
       <c r="AF124" t="n" s="8">
         <v>64001.0</v>
       </c>
+      <c r="AG124" t="n" s="8">
+        <v>65481.0</v>
+      </c>
+      <c r="AH124" t="n" s="8">
+        <v>68086.0</v>
+      </c>
+      <c r="AI124" t="n" s="8">
+        <v>69755.0</v>
+      </c>
+      <c r="AJ124"/>
     </row>
     <row r="125">
       <c r="A125" t="s" s="7">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B125" t="n" s="10">
         <v>6.1</v>
@@ -13200,10 +14428,20 @@
       <c r="AF125" t="n" s="10">
         <v>5.8</v>
       </c>
+      <c r="AG125" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AH125" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI125" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ125"/>
     </row>
     <row r="126">
       <c r="A126" t="s" s="7">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B126" t="n" s="8">
         <v>1146.0</v>
@@ -13298,10 +14536,20 @@
       <c r="AF126" t="n" s="8">
         <v>988.0</v>
       </c>
+      <c r="AG126" t="n" s="8">
+        <v>804.0</v>
+      </c>
+      <c r="AH126" t="n" s="8">
+        <v>554.0</v>
+      </c>
+      <c r="AI126" t="n" s="8">
+        <v>599.0</v>
+      </c>
+      <c r="AJ126"/>
     </row>
     <row r="127">
       <c r="A127" t="s" s="7">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B127" t="n" s="8">
         <v>17732.0</v>
@@ -13396,10 +14644,20 @@
       <c r="AF127" t="n" s="8">
         <v>16102.0</v>
       </c>
+      <c r="AG127" t="n" s="8">
+        <v>16280.0</v>
+      </c>
+      <c r="AH127" t="n" s="8">
+        <v>16296.0</v>
+      </c>
+      <c r="AI127" t="n" s="8">
+        <v>16997.0</v>
+      </c>
+      <c r="AJ127"/>
     </row>
     <row r="128">
       <c r="A128" t="s" s="7">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B128" t="n" s="8">
         <v>18878.0</v>
@@ -13494,10 +14752,20 @@
       <c r="AF128" t="n" s="8">
         <v>17090.0</v>
       </c>
+      <c r="AG128" t="n" s="8">
+        <v>17084.0</v>
+      </c>
+      <c r="AH128" t="n" s="8">
+        <v>16850.0</v>
+      </c>
+      <c r="AI128" t="n" s="8">
+        <v>17596.0</v>
+      </c>
+      <c r="AJ128"/>
     </row>
     <row r="129">
       <c r="A129" t="s" s="7">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B129" t="n" s="10">
         <v>4.3</v>
@@ -13592,10 +14860,20 @@
       <c r="AF129" t="n" s="10">
         <v>5.9</v>
       </c>
+      <c r="AG129" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH129" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI129" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ129"/>
     </row>
     <row r="130">
       <c r="A130" t="s" s="7">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B130" t="n" s="8">
         <v>230.0</v>
@@ -13690,10 +14968,20 @@
       <c r="AF130" t="n" s="8">
         <v>319.0</v>
       </c>
+      <c r="AG130" t="n" s="8">
+        <v>242.0</v>
+      </c>
+      <c r="AH130" t="n" s="8">
+        <v>189.0</v>
+      </c>
+      <c r="AI130" t="n" s="8">
+        <v>184.0</v>
+      </c>
+      <c r="AJ130"/>
     </row>
     <row r="131">
       <c r="A131" t="s" s="7">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B131" t="n" s="8">
         <v>5083.0</v>
@@ -13788,10 +15076,20 @@
       <c r="AF131" t="n" s="8">
         <v>5083.0</v>
       </c>
+      <c r="AG131" t="n" s="8">
+        <v>5302.0</v>
+      </c>
+      <c r="AH131" t="n" s="8">
+        <v>5453.0</v>
+      </c>
+      <c r="AI131" t="n" s="8">
+        <v>5586.0</v>
+      </c>
+      <c r="AJ131"/>
     </row>
     <row r="132">
       <c r="A132" t="s" s="7">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B132" t="n" s="8">
         <v>5313.0</v>
@@ -13886,10 +15184,20 @@
       <c r="AF132" t="n" s="8">
         <v>5402.0</v>
       </c>
+      <c r="AG132" t="n" s="8">
+        <v>5544.0</v>
+      </c>
+      <c r="AH132" t="n" s="8">
+        <v>5642.0</v>
+      </c>
+      <c r="AI132" t="n" s="8">
+        <v>5770.0</v>
+      </c>
+      <c r="AJ132"/>
     </row>
     <row r="133">
       <c r="A133" t="s" s="7">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B133" t="n" s="10">
         <v>5.9</v>
@@ -13984,10 +15292,20 @@
       <c r="AF133" t="n" s="10">
         <v>4.6</v>
       </c>
+      <c r="AG133" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AH133" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI133" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ133"/>
     </row>
     <row r="134">
       <c r="A134" t="s" s="7">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B134" t="n" s="8">
         <v>139.0</v>
@@ -14082,10 +15400,20 @@
       <c r="AF134" t="n" s="8">
         <v>126.0</v>
       </c>
+      <c r="AG134" t="n" s="8">
+        <v>114.0</v>
+      </c>
+      <c r="AH134" t="n" s="8">
+        <v>89.0</v>
+      </c>
+      <c r="AI134" t="n" s="8">
+        <v>95.0</v>
+      </c>
+      <c r="AJ134"/>
     </row>
     <row r="135">
       <c r="A135" t="s" s="7">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B135" t="n" s="8">
         <v>2202.0</v>
@@ -14180,10 +15508,20 @@
       <c r="AF135" t="n" s="8">
         <v>2639.0</v>
       </c>
+      <c r="AG135" t="n" s="8">
+        <v>2689.0</v>
+      </c>
+      <c r="AH135" t="n" s="8">
+        <v>2734.0</v>
+      </c>
+      <c r="AI135" t="n" s="8">
+        <v>2774.0</v>
+      </c>
+      <c r="AJ135"/>
     </row>
     <row r="136">
       <c r="A136" t="s" s="7">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B136" t="n" s="8">
         <v>2341.0</v>
@@ -14278,10 +15616,20 @@
       <c r="AF136" t="n" s="8">
         <v>2765.0</v>
       </c>
+      <c r="AG136" t="n" s="8">
+        <v>2803.0</v>
+      </c>
+      <c r="AH136" t="n" s="8">
+        <v>2823.0</v>
+      </c>
+      <c r="AI136" t="n" s="8">
+        <v>2869.0</v>
+      </c>
+      <c r="AJ136"/>
     </row>
     <row r="137">
       <c r="A137" t="s" s="7">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B137" t="n" s="10">
         <v>8.3</v>
@@ -14376,10 +15724,20 @@
       <c r="AF137" t="n" s="10">
         <v>9.2</v>
       </c>
+      <c r="AG137" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH137" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI137" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ137"/>
     </row>
     <row r="138">
       <c r="A138" t="s" s="7">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B138" t="n" s="8">
         <v>5575.0</v>
@@ -14474,10 +15832,20 @@
       <c r="AF138" t="n" s="8">
         <v>14412.0</v>
       </c>
+      <c r="AG138" t="n" s="8">
+        <v>7600.0</v>
+      </c>
+      <c r="AH138" t="n" s="8">
+        <v>5331.0</v>
+      </c>
+      <c r="AI138" t="n" s="8">
+        <v>5530.0</v>
+      </c>
+      <c r="AJ138"/>
     </row>
     <row r="139">
       <c r="A139" t="s" s="7">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B139" t="n" s="8">
         <v>61483.0</v>
@@ -14572,10 +15940,20 @@
       <c r="AF139" t="n" s="8">
         <v>141967.0</v>
       </c>
+      <c r="AG139" t="n" s="8">
+        <v>151886.0</v>
+      </c>
+      <c r="AH139" t="n" s="8">
+        <v>165847.0</v>
+      </c>
+      <c r="AI139" t="n" s="8">
+        <v>171974.0</v>
+      </c>
+      <c r="AJ139"/>
     </row>
     <row r="140">
       <c r="A140" t="s" s="7">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B140" t="n" s="8">
         <v>67058.0</v>
@@ -14670,10 +16048,20 @@
       <c r="AF140" t="n" s="8">
         <v>156379.0</v>
       </c>
+      <c r="AG140" t="n" s="8">
+        <v>159486.0</v>
+      </c>
+      <c r="AH140" t="n" s="8">
+        <v>171178.0</v>
+      </c>
+      <c r="AI140" t="n" s="8">
+        <v>177504.0</v>
+      </c>
+      <c r="AJ140"/>
     </row>
     <row r="141">
       <c r="A141" t="s" s="7">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B141" t="n" s="10">
         <v>4.0</v>
@@ -14768,10 +16156,20 @@
       <c r="AF141" t="n" s="10">
         <v>7.7</v>
       </c>
+      <c r="AG141" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH141" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI141" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ141"/>
     </row>
     <row r="142">
       <c r="A142" t="s" s="7">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B142" t="n" s="8">
         <v>6196.0</v>
@@ -14866,10 +16264,20 @@
       <c r="AF142" t="n" s="8">
         <v>26652.0</v>
       </c>
+      <c r="AG142" t="n" s="8">
+        <v>15277.0</v>
+      </c>
+      <c r="AH142" t="n" s="8">
+        <v>12103.0</v>
+      </c>
+      <c r="AI142" t="n" s="8">
+        <v>12012.0</v>
+      </c>
+      <c r="AJ142"/>
     </row>
     <row r="143">
       <c r="A143" t="s" s="7">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B143" t="n" s="8">
         <v>149605.0</v>
@@ -14964,10 +16372,20 @@
       <c r="AF143" t="n" s="8">
         <v>317679.0</v>
       </c>
+      <c r="AG143" t="n" s="8">
+        <v>342740.0</v>
+      </c>
+      <c r="AH143" t="n" s="8">
+        <v>357585.0</v>
+      </c>
+      <c r="AI143" t="n" s="8">
+        <v>366080.0</v>
+      </c>
+      <c r="AJ143"/>
     </row>
     <row r="144">
       <c r="A144" t="s" s="7">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B144" t="n" s="8">
         <v>155801.0</v>
@@ -15062,10 +16480,20 @@
       <c r="AF144" t="n" s="8">
         <v>344331.0</v>
       </c>
+      <c r="AG144" t="n" s="8">
+        <v>358017.0</v>
+      </c>
+      <c r="AH144" t="n" s="8">
+        <v>369688.0</v>
+      </c>
+      <c r="AI144" t="n" s="8">
+        <v>378092.0</v>
+      </c>
+      <c r="AJ144"/>
     </row>
     <row r="145">
       <c r="A145" t="s" s="7">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B145" t="n" s="10">
         <v>3.3</v>
@@ -15160,10 +16588,20 @@
       <c r="AF145" t="n" s="10">
         <v>6.2</v>
       </c>
+      <c r="AG145" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH145" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI145" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ145"/>
     </row>
     <row r="146">
       <c r="A146" t="s" s="7">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B146" t="n" s="8">
         <v>3762.0</v>
@@ -15258,10 +16696,20 @@
       <c r="AF146" t="n" s="8">
         <v>9290.0</v>
       </c>
+      <c r="AG146" t="n" s="8">
+        <v>6632.0</v>
+      </c>
+      <c r="AH146" t="n" s="8">
+        <v>4884.0</v>
+      </c>
+      <c r="AI146" t="n" s="8">
+        <v>5019.0</v>
+      </c>
+      <c r="AJ146"/>
     </row>
     <row r="147">
       <c r="A147" t="s" s="7">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B147" t="n" s="8">
         <v>109945.0</v>
@@ -15356,10 +16804,20 @@
       <c r="AF147" t="n" s="8">
         <v>141101.0</v>
       </c>
+      <c r="AG147" t="n" s="8">
+        <v>148276.0</v>
+      </c>
+      <c r="AH147" t="n" s="8">
+        <v>152653.0</v>
+      </c>
+      <c r="AI147" t="n" s="8">
+        <v>156589.0</v>
+      </c>
+      <c r="AJ147"/>
     </row>
     <row r="148">
       <c r="A148" t="s" s="7">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B148" t="n" s="8">
         <v>113707.0</v>
@@ -15454,10 +16912,20 @@
       <c r="AF148" t="n" s="8">
         <v>150391.0</v>
       </c>
+      <c r="AG148" t="n" s="8">
+        <v>154908.0</v>
+      </c>
+      <c r="AH148" t="n" s="8">
+        <v>157537.0</v>
+      </c>
+      <c r="AI148" t="n" s="8">
+        <v>161608.0</v>
+      </c>
+      <c r="AJ148"/>
     </row>
     <row r="149">
       <c r="A149" t="s" s="7">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B149" t="n" s="10">
         <v>5.7</v>
@@ -15552,10 +17020,20 @@
       <c r="AF149" t="n" s="10">
         <v>6.4</v>
       </c>
+      <c r="AG149" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH149" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI149" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ149"/>
     </row>
     <row r="150">
       <c r="A150" t="s" s="7">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B150" t="n" s="8">
         <v>609.0</v>
@@ -15650,10 +17128,20 @@
       <c r="AF150" t="n" s="8">
         <v>1051.0</v>
       </c>
+      <c r="AG150" t="n" s="8">
+        <v>775.0</v>
+      </c>
+      <c r="AH150" t="n" s="8">
+        <v>612.0</v>
+      </c>
+      <c r="AI150" t="n" s="8">
+        <v>615.0</v>
+      </c>
+      <c r="AJ150"/>
     </row>
     <row r="151">
       <c r="A151" t="s" s="7">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B151" t="n" s="8">
         <v>10116.0</v>
@@ -15748,10 +17236,20 @@
       <c r="AF151" t="n" s="8">
         <v>15394.0</v>
       </c>
+      <c r="AG151" t="n" s="8">
+        <v>16040.0</v>
+      </c>
+      <c r="AH151" t="n" s="8">
+        <v>16483.0</v>
+      </c>
+      <c r="AI151" t="n" s="8">
+        <v>16906.0</v>
+      </c>
+      <c r="AJ151"/>
     </row>
     <row r="152">
       <c r="A152" t="s" s="7">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B152" t="n" s="8">
         <v>10725.0</v>
@@ -15846,10 +17344,20 @@
       <c r="AF152" t="n" s="8">
         <v>16445.0</v>
       </c>
+      <c r="AG152" t="n" s="8">
+        <v>16815.0</v>
+      </c>
+      <c r="AH152" t="n" s="8">
+        <v>17095.0</v>
+      </c>
+      <c r="AI152" t="n" s="8">
+        <v>17521.0</v>
+      </c>
+      <c r="AJ152"/>
     </row>
     <row r="153">
       <c r="A153" t="s" s="7">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B153" t="n" s="10">
         <v>4.1</v>
@@ -15944,10 +17452,20 @@
       <c r="AF153" t="n" s="10">
         <v>5.1</v>
       </c>
+      <c r="AG153" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH153" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI153" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ153"/>
     </row>
     <row r="154">
       <c r="A154" t="s" s="7">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B154" t="n" s="8">
         <v>90.0</v>
@@ -16042,10 +17560,20 @@
       <c r="AF154" t="n" s="8">
         <v>131.0</v>
       </c>
+      <c r="AG154" t="n" s="8">
+        <v>113.0</v>
+      </c>
+      <c r="AH154" t="n" s="8">
+        <v>86.0</v>
+      </c>
+      <c r="AI154" t="n" s="8">
+        <v>87.0</v>
+      </c>
+      <c r="AJ154"/>
     </row>
     <row r="155">
       <c r="A155" t="s" s="7">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B155" t="n" s="8">
         <v>2132.0</v>
@@ -16140,10 +17668,20 @@
       <c r="AF155" t="n" s="8">
         <v>2456.0</v>
       </c>
+      <c r="AG155" t="n" s="8">
+        <v>2484.0</v>
+      </c>
+      <c r="AH155" t="n" s="8">
+        <v>2488.0</v>
+      </c>
+      <c r="AI155" t="n" s="8">
+        <v>2566.0</v>
+      </c>
+      <c r="AJ155"/>
     </row>
     <row r="156">
       <c r="A156" t="s" s="7">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B156" t="n" s="8">
         <v>2222.0</v>
@@ -16238,10 +17776,20 @@
       <c r="AF156" t="n" s="8">
         <v>2587.0</v>
       </c>
+      <c r="AG156" t="n" s="8">
+        <v>2597.0</v>
+      </c>
+      <c r="AH156" t="n" s="8">
+        <v>2574.0</v>
+      </c>
+      <c r="AI156" t="n" s="8">
+        <v>2653.0</v>
+      </c>
+      <c r="AJ156"/>
     </row>
     <row r="157">
       <c r="A157" t="s" s="7">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B157" t="n" s="10">
         <v>9.0</v>
@@ -16336,10 +17884,20 @@
       <c r="AF157" t="n" s="10">
         <v>6.5</v>
       </c>
+      <c r="AG157" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AH157" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI157" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ157"/>
     </row>
     <row r="158">
       <c r="A158" t="s" s="7">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B158" t="n" s="8">
         <v>641.0</v>
@@ -16434,10 +17992,20 @@
       <c r="AF158" t="n" s="8">
         <v>489.0</v>
       </c>
+      <c r="AG158" t="n" s="8">
+        <v>388.0</v>
+      </c>
+      <c r="AH158" t="n" s="8">
+        <v>265.0</v>
+      </c>
+      <c r="AI158" t="n" s="8">
+        <v>262.0</v>
+      </c>
+      <c r="AJ158"/>
     </row>
     <row r="159">
       <c r="A159" t="s" s="7">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B159" t="n" s="8">
         <v>6451.0</v>
@@ -16532,10 +18100,20 @@
       <c r="AF159" t="n" s="8">
         <v>7040.0</v>
       </c>
+      <c r="AG159" t="n" s="8">
+        <v>7277.0</v>
+      </c>
+      <c r="AH159" t="n" s="8">
+        <v>7700.0</v>
+      </c>
+      <c r="AI159" t="n" s="8">
+        <v>7781.0</v>
+      </c>
+      <c r="AJ159"/>
     </row>
     <row r="160">
       <c r="A160" t="s" s="7">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B160" t="n" s="8">
         <v>7092.0</v>
@@ -16630,10 +18208,20 @@
       <c r="AF160" t="n" s="8">
         <v>7529.0</v>
       </c>
+      <c r="AG160" t="n" s="8">
+        <v>7665.0</v>
+      </c>
+      <c r="AH160" t="n" s="8">
+        <v>7965.0</v>
+      </c>
+      <c r="AI160" t="n" s="8">
+        <v>8043.0</v>
+      </c>
+      <c r="AJ160"/>
     </row>
     <row r="161">
       <c r="A161" t="s" s="7">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B161" t="n" s="10">
         <v>4.1</v>
@@ -16728,10 +18316,20 @@
       <c r="AF161" t="n" s="10">
         <v>7.2</v>
       </c>
+      <c r="AG161" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AH161" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI161" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ161"/>
     </row>
     <row r="162">
       <c r="A162" t="s" s="7">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B162" t="n" s="8">
         <v>3900.0</v>
@@ -16826,10 +18424,20 @@
       <c r="AF162" t="n" s="8">
         <v>12547.0</v>
       </c>
+      <c r="AG162" t="n" s="8">
+        <v>7372.0</v>
+      </c>
+      <c r="AH162" t="n" s="8">
+        <v>5489.0</v>
+      </c>
+      <c r="AI162" t="n" s="8">
+        <v>5882.0</v>
+      </c>
+      <c r="AJ162"/>
     </row>
     <row r="163">
       <c r="A163" t="s" s="7">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B163" t="n" s="8">
         <v>92015.0</v>
@@ -16924,10 +18532,20 @@
       <c r="AF163" t="n" s="8">
         <v>162762.0</v>
       </c>
+      <c r="AG163" t="n" s="8">
+        <v>172818.0</v>
+      </c>
+      <c r="AH163" t="n" s="8">
+        <v>180356.0</v>
+      </c>
+      <c r="AI163" t="n" s="8">
+        <v>187525.0</v>
+      </c>
+      <c r="AJ163"/>
     </row>
     <row r="164">
       <c r="A164" t="s" s="7">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B164" t="n" s="8">
         <v>95915.0</v>
@@ -17022,10 +18640,20 @@
       <c r="AF164" t="n" s="8">
         <v>175309.0</v>
       </c>
+      <c r="AG164" t="n" s="8">
+        <v>180190.0</v>
+      </c>
+      <c r="AH164" t="n" s="8">
+        <v>185845.0</v>
+      </c>
+      <c r="AI164" t="n" s="8">
+        <v>193407.0</v>
+      </c>
+      <c r="AJ164"/>
     </row>
     <row r="165">
       <c r="A165" t="s" s="7">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B165" t="n" s="10">
         <v>6.2</v>
@@ -17120,10 +18748,20 @@
       <c r="AF165" t="n" s="10">
         <v>7.4</v>
       </c>
+      <c r="AG165" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AH165" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI165" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AJ165"/>
     </row>
     <row r="166">
       <c r="A166" t="s" s="7">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B166" t="n" s="8">
         <v>5189.0</v>
@@ -17218,10 +18856,20 @@
       <c r="AF166" t="n" s="8">
         <v>10321.0</v>
       </c>
+      <c r="AG166" t="n" s="8">
+        <v>7156.0</v>
+      </c>
+      <c r="AH166" t="n" s="8">
+        <v>5262.0</v>
+      </c>
+      <c r="AI166" t="n" s="8">
+        <v>5521.0</v>
+      </c>
+      <c r="AJ166"/>
     </row>
     <row r="167">
       <c r="A167" t="s" s="7">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B167" t="n" s="8">
         <v>78859.0</v>
@@ -17316,10 +18964,20 @@
       <c r="AF167" t="n" s="8">
         <v>128309.0</v>
       </c>
+      <c r="AG167" t="n" s="8">
+        <v>135609.0</v>
+      </c>
+      <c r="AH167" t="n" s="8">
+        <v>142006.0</v>
+      </c>
+      <c r="AI167" t="n" s="8">
+        <v>146274.0</v>
+      </c>
+      <c r="AJ167"/>
     </row>
     <row r="168">
       <c r="A168" t="s" s="7">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B168" t="n" s="8">
         <v>84048.0</v>
@@ -17414,10 +19072,20 @@
       <c r="AF168" t="n" s="8">
         <v>138630.0</v>
       </c>
+      <c r="AG168" t="n" s="8">
+        <v>142765.0</v>
+      </c>
+      <c r="AH168" t="n" s="8">
+        <v>147268.0</v>
+      </c>
+      <c r="AI168" t="n" s="8">
+        <v>151795.0</v>
+      </c>
+      <c r="AJ168"/>
     </row>
     <row r="169">
       <c r="A169" t="s" s="7">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B169" t="n" s="10">
         <v>7.7</v>
@@ -17512,10 +19180,20 @@
       <c r="AF169" t="n" s="10">
         <v>6.4</v>
       </c>
+      <c r="AG169" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AH169" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI169" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ169"/>
     </row>
     <row r="170">
       <c r="A170" t="s" s="7">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B170" t="n" s="8">
         <v>3525.0</v>
@@ -17610,10 +19288,20 @@
       <c r="AF170" t="n" s="8">
         <v>4556.0</v>
       </c>
+      <c r="AG170" t="n" s="8">
+        <v>2697.0</v>
+      </c>
+      <c r="AH170" t="n" s="8">
+        <v>2113.0</v>
+      </c>
+      <c r="AI170" t="n" s="8">
+        <v>2253.0</v>
+      </c>
+      <c r="AJ170"/>
     </row>
     <row r="171">
       <c r="A171" t="s" s="7">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B171" t="n" s="8">
         <v>42286.0</v>
@@ -17708,10 +19396,20 @@
       <c r="AF171" t="n" s="8">
         <v>66660.0</v>
       </c>
+      <c r="AG171" t="n" s="8">
+        <v>70770.0</v>
+      </c>
+      <c r="AH171" t="n" s="8">
+        <v>73320.0</v>
+      </c>
+      <c r="AI171" t="n" s="8">
+        <v>75677.0</v>
+      </c>
+      <c r="AJ171"/>
     </row>
     <row r="172">
       <c r="A172" t="s" s="7">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B172" t="n" s="8">
         <v>45811.0</v>
@@ -17806,10 +19504,20 @@
       <c r="AF172" t="n" s="8">
         <v>71216.0</v>
       </c>
+      <c r="AG172" t="n" s="8">
+        <v>73467.0</v>
+      </c>
+      <c r="AH172" t="n" s="8">
+        <v>75433.0</v>
+      </c>
+      <c r="AI172" t="n" s="8">
+        <v>77930.0</v>
+      </c>
+      <c r="AJ172"/>
     </row>
     <row r="173">
       <c r="A173" t="s" s="7">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B173" t="n" s="10">
         <v>7.6</v>
@@ -17904,10 +19612,20 @@
       <c r="AF173" t="n" s="10">
         <v>8.2</v>
       </c>
+      <c r="AG173" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AH173" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI173" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AJ173"/>
     </row>
     <row r="174">
       <c r="A174" t="s" s="7">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B174" t="n" s="8">
         <v>74375.0</v>
@@ -18002,10 +19720,20 @@
       <c r="AF174" t="n" s="8">
         <v>104348.0</v>
       </c>
+      <c r="AG174" t="n" s="8">
+        <v>72898.0</v>
+      </c>
+      <c r="AH174" t="n" s="8">
+        <v>35787.0</v>
+      </c>
+      <c r="AI174" t="n" s="8">
+        <v>25072.0</v>
+      </c>
+      <c r="AJ174"/>
     </row>
     <row r="175">
       <c r="A175" t="s" s="7">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B175" t="n" s="8">
         <v>906445.0</v>
@@ -18100,10 +19828,20 @@
       <c r="AF175" t="n" s="8">
         <v>1170373.0</v>
       </c>
+      <c r="AG175" t="n" s="8">
+        <v>1242688.0</v>
+      </c>
+      <c r="AH175" t="n" s="8">
+        <v>1320709.0</v>
+      </c>
+      <c r="AI175" t="n" s="8">
+        <v>1352500.0</v>
+      </c>
+      <c r="AJ175"/>
     </row>
     <row r="176">
       <c r="A176" t="s" s="7">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B176" t="n" s="8">
         <v>980820.0</v>
@@ -18198,10 +19936,20 @@
       <c r="AF176" t="n" s="8">
         <v>1274721.0</v>
       </c>
+      <c r="AG176" t="n" s="8">
+        <v>1315586.0</v>
+      </c>
+      <c r="AH176" t="n" s="8">
+        <v>1356496.0</v>
+      </c>
+      <c r="AI176" t="n" s="8">
+        <v>1377572.0</v>
+      </c>
+      <c r="AJ176"/>
     </row>
     <row r="177">
       <c r="A177" t="s" s="7">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B177" t="n" s="10">
         <v>2.7</v>
@@ -18296,10 +20044,20 @@
       <c r="AF177" t="n" s="10">
         <v>8.2</v>
       </c>
+      <c r="AG177" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AH177" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AI177" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AJ177"/>
     </row>
     <row r="178">
       <c r="A178" t="s" s="7">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B178" t="n" s="8">
         <v>1121.0</v>
@@ -18394,10 +20152,20 @@
       <c r="AF178" t="n" s="8">
         <v>3637.0</v>
       </c>
+      <c r="AG178" t="n" s="8">
+        <v>1392.0</v>
+      </c>
+      <c r="AH178" t="n" s="8">
+        <v>942.0</v>
+      </c>
+      <c r="AI178" t="n" s="8">
+        <v>954.0</v>
+      </c>
+      <c r="AJ178"/>
     </row>
     <row r="179">
       <c r="A179" t="s" s="7">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B179" t="n" s="8">
         <v>40030.0</v>
@@ -18492,10 +20260,20 @@
       <c r="AF179" t="n" s="8">
         <v>40716.0</v>
       </c>
+      <c r="AG179" t="n" s="8">
+        <v>44480.0</v>
+      </c>
+      <c r="AH179" t="n" s="8">
+        <v>47641.0</v>
+      </c>
+      <c r="AI179" t="n" s="8">
+        <v>48941.0</v>
+      </c>
+      <c r="AJ179"/>
     </row>
     <row r="180">
       <c r="A180" t="s" s="7">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B180" t="n" s="8">
         <v>41151.0</v>
@@ -18590,10 +20368,20 @@
       <c r="AF180" t="n" s="8">
         <v>44353.0</v>
       </c>
+      <c r="AG180" t="n" s="8">
+        <v>45872.0</v>
+      </c>
+      <c r="AH180" t="n" s="8">
+        <v>48583.0</v>
+      </c>
+      <c r="AI180" t="n" s="8">
+        <v>49895.0</v>
+      </c>
+      <c r="AJ180"/>
     </row>
     <row r="181">
       <c r="A181" t="s" s="7">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B181" t="n" s="10">
         <v>5.9</v>
@@ -18688,10 +20476,20 @@
       <c r="AF181" t="n" s="10">
         <v>5.9</v>
       </c>
+      <c r="AG181" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AH181" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI181" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ181"/>
     </row>
     <row r="182">
       <c r="A182" t="s" s="7">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B182" t="n" s="8">
         <v>1347.0</v>
@@ -18786,10 +20584,20 @@
       <c r="AF182" t="n" s="8">
         <v>2453.0</v>
       </c>
+      <c r="AG182" t="n" s="8">
+        <v>1507.0</v>
+      </c>
+      <c r="AH182" t="n" s="8">
+        <v>1174.0</v>
+      </c>
+      <c r="AI182" t="n" s="8">
+        <v>1286.0</v>
+      </c>
+      <c r="AJ182"/>
     </row>
     <row r="183">
       <c r="A183" t="s" s="7">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B183" t="n" s="8">
         <v>21482.0</v>
@@ -18884,10 +20692,20 @@
       <c r="AF183" t="n" s="8">
         <v>39025.0</v>
       </c>
+      <c r="AG183" t="n" s="8">
+        <v>41260.0</v>
+      </c>
+      <c r="AH183" t="n" s="8">
+        <v>43179.0</v>
+      </c>
+      <c r="AI183" t="n" s="8">
+        <v>44186.0</v>
+      </c>
+      <c r="AJ183"/>
     </row>
     <row r="184">
       <c r="A184" t="s" s="7">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B184" t="n" s="8">
         <v>22829.0</v>
@@ -18982,10 +20800,20 @@
       <c r="AF184" t="n" s="8">
         <v>41478.0</v>
       </c>
+      <c r="AG184" t="n" s="8">
+        <v>42767.0</v>
+      </c>
+      <c r="AH184" t="n" s="8">
+        <v>44353.0</v>
+      </c>
+      <c r="AI184" t="n" s="8">
+        <v>45472.0</v>
+      </c>
+      <c r="AJ184"/>
     </row>
     <row r="185">
       <c r="A185" t="s" s="7">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B185" t="n" s="10">
         <v>6.0</v>
@@ -19080,10 +20908,20 @@
       <c r="AF185" t="n" s="10">
         <v>5.8</v>
       </c>
+      <c r="AG185" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AH185" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AI185" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ185"/>
     </row>
     <row r="186">
       <c r="A186" t="s" s="7">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B186" t="n" s="8">
         <v>4002.0</v>
@@ -19178,10 +21016,20 @@
       <c r="AF186" t="n" s="8">
         <v>5490.0</v>
       </c>
+      <c r="AG186" t="n" s="8">
+        <v>3408.0</v>
+      </c>
+      <c r="AH186" t="n" s="8">
+        <v>2594.0</v>
+      </c>
+      <c r="AI186" t="n" s="8">
+        <v>2736.0</v>
+      </c>
+      <c r="AJ186"/>
     </row>
     <row r="187">
       <c r="A187" t="s" s="7">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B187" t="n" s="8">
         <v>62397.0</v>
@@ -19276,10 +21124,20 @@
       <c r="AF187" t="n" s="8">
         <v>89575.0</v>
       </c>
+      <c r="AG187" t="n" s="8">
+        <v>96009.0</v>
+      </c>
+      <c r="AH187" t="n" s="8">
+        <v>99183.0</v>
+      </c>
+      <c r="AI187" t="n" s="8">
+        <v>101885.0</v>
+      </c>
+      <c r="AJ187"/>
     </row>
     <row r="188">
       <c r="A188" t="s" s="7">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B188" t="n" s="8">
         <v>66399.0</v>
@@ -19374,10 +21232,20 @@
       <c r="AF188" t="n" s="8">
         <v>95065.0</v>
       </c>
+      <c r="AG188" t="n" s="8">
+        <v>99417.0</v>
+      </c>
+      <c r="AH188" t="n" s="8">
+        <v>101777.0</v>
+      </c>
+      <c r="AI188" t="n" s="8">
+        <v>104621.0</v>
+      </c>
+      <c r="AJ188"/>
     </row>
     <row r="189">
       <c r="A189" t="s" s="7">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B189" t="n" s="10">
         <v>8.5</v>
@@ -19472,10 +21340,20 @@
       <c r="AF189" t="n" s="10">
         <v>5.7</v>
       </c>
+      <c r="AG189" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH189" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI189" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ189"/>
     </row>
     <row r="190">
       <c r="A190" t="s" s="7">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B190" t="n" s="8">
         <v>1176.0</v>
@@ -19570,10 +21448,20 @@
       <c r="AF190" t="n" s="8">
         <v>973.0</v>
       </c>
+      <c r="AG190" t="n" s="8">
+        <v>744.0</v>
+      </c>
+      <c r="AH190" t="n" s="8">
+        <v>557.0</v>
+      </c>
+      <c r="AI190" t="n" s="8">
+        <v>582.0</v>
+      </c>
+      <c r="AJ190"/>
     </row>
     <row r="191">
       <c r="A191" t="s" s="7">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B191" t="n" s="8">
         <v>12648.0</v>
@@ -19668,10 +21556,20 @@
       <c r="AF191" t="n" s="8">
         <v>16085.0</v>
       </c>
+      <c r="AG191" t="n" s="8">
+        <v>16551.0</v>
+      </c>
+      <c r="AH191" t="n" s="8">
+        <v>17017.0</v>
+      </c>
+      <c r="AI191" t="n" s="8">
+        <v>17534.0</v>
+      </c>
+      <c r="AJ191"/>
     </row>
     <row r="192">
       <c r="A192" t="s" s="7">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B192" t="n" s="8">
         <v>13824.0</v>
@@ -19766,10 +21664,20 @@
       <c r="AF192" t="n" s="8">
         <v>17058.0</v>
       </c>
+      <c r="AG192" t="n" s="8">
+        <v>17295.0</v>
+      </c>
+      <c r="AH192" t="n" s="8">
+        <v>17574.0</v>
+      </c>
+      <c r="AI192" t="n" s="8">
+        <v>18116.0</v>
+      </c>
+      <c r="AJ192"/>
     </row>
     <row r="193">
       <c r="A193" t="s" s="7">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B193" t="n" s="10">
         <v>5.7</v>
@@ -19864,10 +21772,20 @@
       <c r="AF193" t="n" s="10">
         <v>11.2</v>
       </c>
+      <c r="AG193" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AH193" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI193" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ193"/>
     </row>
     <row r="194">
       <c r="A194" t="s" s="7">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B194" t="n" s="8">
         <v>22377.0</v>
@@ -19962,10 +21880,20 @@
       <c r="AF194" t="n" s="8">
         <v>83021.0</v>
       </c>
+      <c r="AG194" t="n" s="8">
+        <v>38438.0</v>
+      </c>
+      <c r="AH194" t="n" s="8">
+        <v>23485.0</v>
+      </c>
+      <c r="AI194" t="n" s="8">
+        <v>23330.0</v>
+      </c>
+      <c r="AJ194"/>
     </row>
     <row r="195">
       <c r="A195" t="s" s="7">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B195" t="n" s="8">
         <v>372462.0</v>
@@ -20060,10 +21988,20 @@
       <c r="AF195" t="n" s="8">
         <v>656635.0</v>
       </c>
+      <c r="AG195" t="n" s="8">
+        <v>704238.0</v>
+      </c>
+      <c r="AH195" t="n" s="8">
+        <v>768184.0</v>
+      </c>
+      <c r="AI195" t="n" s="8">
+        <v>797143.0</v>
+      </c>
+      <c r="AJ195"/>
     </row>
     <row r="196">
       <c r="A196" t="s" s="7">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B196" t="n" s="8">
         <v>394839.0</v>
@@ -20158,10 +22096,20 @@
       <c r="AF196" t="n" s="8">
         <v>739656.0</v>
       </c>
+      <c r="AG196" t="n" s="8">
+        <v>742676.0</v>
+      </c>
+      <c r="AH196" t="n" s="8">
+        <v>791669.0</v>
+      </c>
+      <c r="AI196" t="n" s="8">
+        <v>820473.0</v>
+      </c>
+      <c r="AJ196"/>
     </row>
     <row r="197">
       <c r="A197" t="s" s="7">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B197" t="n" s="10">
         <v>5.0</v>
@@ -20256,10 +22204,20 @@
       <c r="AF197" t="n" s="10">
         <v>14.1</v>
       </c>
+      <c r="AG197" t="n" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="AH197" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI197" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ197"/>
     </row>
     <row r="198">
       <c r="A198" t="s" s="7">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B198" t="n" s="8">
         <v>2990.0</v>
@@ -20354,10 +22312,20 @@
       <c r="AF198" t="n" s="8">
         <v>26707.0</v>
       </c>
+      <c r="AG198" t="n" s="8">
+        <v>11617.0</v>
+      </c>
+      <c r="AH198" t="n" s="8">
+        <v>6886.0</v>
+      </c>
+      <c r="AI198" t="n" s="8">
+        <v>6879.0</v>
+      </c>
+      <c r="AJ198"/>
     </row>
     <row r="199">
       <c r="A199" t="s" s="7">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B199" t="n" s="8">
         <v>56268.0</v>
@@ -20452,10 +22420,20 @@
       <c r="AF199" t="n" s="8">
         <v>162790.0</v>
       </c>
+      <c r="AG199" t="n" s="8">
+        <v>174483.0</v>
+      </c>
+      <c r="AH199" t="n" s="8">
+        <v>190025.0</v>
+      </c>
+      <c r="AI199" t="n" s="8">
+        <v>197266.0</v>
+      </c>
+      <c r="AJ199"/>
     </row>
     <row r="200">
       <c r="A200" t="s" s="7">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B200" t="n" s="8">
         <v>59258.0</v>
@@ -20550,10 +22528,20 @@
       <c r="AF200" t="n" s="8">
         <v>189497.0</v>
       </c>
+      <c r="AG200" t="n" s="8">
+        <v>186100.0</v>
+      </c>
+      <c r="AH200" t="n" s="8">
+        <v>196911.0</v>
+      </c>
+      <c r="AI200" t="n" s="8">
+        <v>204145.0</v>
+      </c>
+      <c r="AJ200"/>
     </row>
     <row r="201">
       <c r="A201" t="s" s="7">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B201" t="n" s="10">
         <v>7.4</v>
@@ -20648,10 +22636,20 @@
       <c r="AF201" t="n" s="10">
         <v>8.0</v>
       </c>
+      <c r="AG201" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH201" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI201" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ201"/>
     </row>
     <row r="202">
       <c r="A202" t="s" s="7">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B202" t="n" s="8">
         <v>32196.0</v>
@@ -20746,10 +22744,20 @@
       <c r="AF202" t="n" s="8">
         <v>57335.0</v>
       </c>
+      <c r="AG202" t="n" s="8">
+        <v>32327.0</v>
+      </c>
+      <c r="AH202" t="n" s="8">
+        <v>22839.0</v>
+      </c>
+      <c r="AI202" t="n" s="8">
+        <v>23432.0</v>
+      </c>
+      <c r="AJ202"/>
     </row>
     <row r="203">
       <c r="A203" t="s" s="7">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B203" t="n" s="8">
         <v>403344.0</v>
@@ -20844,10 +22852,20 @@
       <c r="AF203" t="n" s="8">
         <v>656392.0</v>
       </c>
+      <c r="AG203" t="n" s="8">
+        <v>700893.0</v>
+      </c>
+      <c r="AH203" t="n" s="8">
+        <v>734400.0</v>
+      </c>
+      <c r="AI203" t="n" s="8">
+        <v>755532.0</v>
+      </c>
+      <c r="AJ203"/>
     </row>
     <row r="204">
       <c r="A204" t="s" s="7">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B204" t="n" s="8">
         <v>435540.0</v>
@@ -20942,10 +22960,20 @@
       <c r="AF204" t="n" s="8">
         <v>713727.0</v>
       </c>
+      <c r="AG204" t="n" s="8">
+        <v>733220.0</v>
+      </c>
+      <c r="AH204" t="n" s="8">
+        <v>757239.0</v>
+      </c>
+      <c r="AI204" t="n" s="8">
+        <v>778964.0</v>
+      </c>
+      <c r="AJ204"/>
     </row>
     <row r="205">
       <c r="A205" t="s" s="7">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B205" t="n" s="10">
         <v>6.4</v>
@@ -21040,10 +23068,20 @@
       <c r="AF205" t="n" s="10">
         <v>7.5</v>
       </c>
+      <c r="AG205" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH205" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI205" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ205"/>
     </row>
     <row r="206">
       <c r="A206" t="s" s="7">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B206" t="n" s="8">
         <v>7032.0</v>
@@ -21138,10 +23176,20 @@
       <c r="AF206" t="n" s="8">
         <v>18060.0</v>
       </c>
+      <c r="AG206" t="n" s="8">
+        <v>11133.0</v>
+      </c>
+      <c r="AH206" t="n" s="8">
+        <v>8107.0</v>
+      </c>
+      <c r="AI206" t="n" s="8">
+        <v>8843.0</v>
+      </c>
+      <c r="AJ206"/>
     </row>
     <row r="207">
       <c r="A207" t="s" s="7">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B207" t="n" s="8">
         <v>103012.0</v>
@@ -21236,10 +23284,20 @@
       <c r="AF207" t="n" s="8">
         <v>222125.0</v>
       </c>
+      <c r="AG207" t="n" s="8">
+        <v>235791.0</v>
+      </c>
+      <c r="AH207" t="n" s="8">
+        <v>249181.0</v>
+      </c>
+      <c r="AI207" t="n" s="8">
+        <v>256626.0</v>
+      </c>
+      <c r="AJ207"/>
     </row>
     <row r="208">
       <c r="A208" t="s" s="7">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B208" t="n" s="8">
         <v>110044.0</v>
@@ -21334,10 +23392,20 @@
       <c r="AF208" t="n" s="8">
         <v>240185.0</v>
       </c>
+      <c r="AG208" t="n" s="8">
+        <v>246924.0</v>
+      </c>
+      <c r="AH208" t="n" s="8">
+        <v>257288.0</v>
+      </c>
+      <c r="AI208" t="n" s="8">
+        <v>265469.0</v>
+      </c>
+      <c r="AJ208"/>
     </row>
     <row r="209">
       <c r="A209" t="s" s="7">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B209" t="n" s="10">
         <v>4.8</v>
@@ -21432,10 +23500,20 @@
       <c r="AF209" t="n" s="10">
         <v>7.5</v>
       </c>
+      <c r="AG209" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AH209" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AI209" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ209"/>
     </row>
     <row r="210">
       <c r="A210" t="s" s="7">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B210" t="n" s="8">
         <v>20205.0</v>
@@ -21530,10 +23608,20 @@
       <c r="AF210" t="n" s="8">
         <v>35601.0</v>
       </c>
+      <c r="AG210" t="n" s="8">
+        <v>19899.0</v>
+      </c>
+      <c r="AH210" t="n" s="8">
+        <v>13905.0</v>
+      </c>
+      <c r="AI210" t="n" s="8">
+        <v>14571.0</v>
+      </c>
+      <c r="AJ210"/>
     </row>
     <row r="211">
       <c r="A211" t="s" s="7">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B211" t="n" s="8">
         <v>403741.0</v>
@@ -21628,10 +23716,20 @@
       <c r="AF211" t="n" s="8">
         <v>440021.0</v>
       </c>
+      <c r="AG211" t="n" s="8">
+        <v>467997.0</v>
+      </c>
+      <c r="AH211" t="n" s="8">
+        <v>494211.0</v>
+      </c>
+      <c r="AI211" t="n" s="8">
+        <v>509140.0</v>
+      </c>
+      <c r="AJ211"/>
     </row>
     <row r="212">
       <c r="A212" t="s" s="7">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B212" t="n" s="8">
         <v>423946.0</v>
@@ -21726,10 +23824,20 @@
       <c r="AF212" t="n" s="8">
         <v>475622.0</v>
       </c>
+      <c r="AG212" t="n" s="8">
+        <v>487896.0</v>
+      </c>
+      <c r="AH212" t="n" s="8">
+        <v>508116.0</v>
+      </c>
+      <c r="AI212" t="n" s="8">
+        <v>523711.0</v>
+      </c>
+      <c r="AJ212"/>
     </row>
     <row r="213">
       <c r="A213" t="s" s="7">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B213" t="n" s="10">
         <v>10.4</v>
@@ -21824,10 +23932,20 @@
       <c r="AF213" t="n" s="10">
         <v>9.6</v>
       </c>
+      <c r="AG213" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AH213" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI213" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ213"/>
     </row>
     <row r="214">
       <c r="A214" t="s" s="7">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B214" t="n" s="8">
         <v>21001.0</v>
@@ -21922,10 +24040,20 @@
       <c r="AF214" t="n" s="8">
         <v>30469.0</v>
       </c>
+      <c r="AG214" t="n" s="8">
+        <v>17857.0</v>
+      </c>
+      <c r="AH214" t="n" s="8">
+        <v>12132.0</v>
+      </c>
+      <c r="AI214" t="n" s="8">
+        <v>12575.0</v>
+      </c>
+      <c r="AJ214"/>
     </row>
     <row r="215">
       <c r="A215" t="s" s="7">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B215" t="n" s="8">
         <v>181823.0</v>
@@ -22020,10 +24148,20 @@
       <c r="AF215" t="n" s="8">
         <v>288372.0</v>
       </c>
+      <c r="AG215" t="n" s="8">
+        <v>309533.0</v>
+      </c>
+      <c r="AH215" t="n" s="8">
+        <v>323912.0</v>
+      </c>
+      <c r="AI215" t="n" s="8">
+        <v>331847.0</v>
+      </c>
+      <c r="AJ215"/>
     </row>
     <row r="216">
       <c r="A216" t="s" s="7">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B216" t="n" s="8">
         <v>202824.0</v>
@@ -22118,10 +24256,20 @@
       <c r="AF216" t="n" s="8">
         <v>318841.0</v>
       </c>
+      <c r="AG216" t="n" s="8">
+        <v>327390.0</v>
+      </c>
+      <c r="AH216" t="n" s="8">
+        <v>336044.0</v>
+      </c>
+      <c r="AI216" t="n" s="8">
+        <v>344422.0</v>
+      </c>
+      <c r="AJ216"/>
     </row>
     <row r="217">
       <c r="A217" t="s" s="7">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B217" t="n" s="10">
         <v>6.4</v>
@@ -22216,10 +24364,20 @@
       <c r="AF217" t="n" s="10">
         <v>8.4</v>
       </c>
+      <c r="AG217" t="n" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="AH217" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AI217" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ217"/>
     </row>
     <row r="218">
       <c r="A218" t="s" s="7">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B218" t="n" s="8">
         <v>1702.0</v>
@@ -22314,10 +24472,20 @@
       <c r="AF218" t="n" s="8">
         <v>2222.0</v>
       </c>
+      <c r="AG218" t="n" s="8">
+        <v>1677.0</v>
+      </c>
+      <c r="AH218" t="n" s="8">
+        <v>1147.0</v>
+      </c>
+      <c r="AI218" t="n" s="8">
+        <v>1122.0</v>
+      </c>
+      <c r="AJ218"/>
     </row>
     <row r="219">
       <c r="A219" t="s" s="7">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B219" t="n" s="8">
         <v>24695.0</v>
@@ -22412,10 +24580,20 @@
       <c r="AF219" t="n" s="8">
         <v>24104.0</v>
       </c>
+      <c r="AG219" t="n" s="8">
+        <v>25862.0</v>
+      </c>
+      <c r="AH219" t="n" s="8">
+        <v>26165.0</v>
+      </c>
+      <c r="AI219" t="n" s="8">
+        <v>27109.0</v>
+      </c>
+      <c r="AJ219"/>
     </row>
     <row r="220">
       <c r="A220" t="s" s="7">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B220" t="n" s="8">
         <v>26397.0</v>
@@ -22510,10 +24688,20 @@
       <c r="AF220" t="n" s="8">
         <v>26326.0</v>
       </c>
+      <c r="AG220" t="n" s="8">
+        <v>27539.0</v>
+      </c>
+      <c r="AH220" t="n" s="8">
+        <v>27312.0</v>
+      </c>
+      <c r="AI220" t="n" s="8">
+        <v>28231.0</v>
+      </c>
+      <c r="AJ220"/>
     </row>
     <row r="221">
       <c r="A221" t="s" s="7">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B221" t="n" s="10">
         <v>5.3</v>
@@ -22608,10 +24796,20 @@
       <c r="AF221" t="n" s="10">
         <v>5.4</v>
       </c>
+      <c r="AG221" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AH221" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AI221" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AJ221"/>
     </row>
     <row r="222">
       <c r="A222" t="s" s="7">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B222" t="n" s="8">
         <v>2339.0</v>
@@ -22706,10 +24904,20 @@
       <c r="AF222" t="n" s="8">
         <v>7458.0</v>
       </c>
+      <c r="AG222" t="n" s="8">
+        <v>4454.0</v>
+      </c>
+      <c r="AH222" t="n" s="8">
+        <v>3587.0</v>
+      </c>
+      <c r="AI222" t="n" s="8">
+        <v>4044.0</v>
+      </c>
+      <c r="AJ222"/>
     </row>
     <row r="223">
       <c r="A223" t="s" s="7">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B223" t="n" s="8">
         <v>42074.0</v>
@@ -22804,10 +25012,20 @@
       <c r="AF223" t="n" s="8">
         <v>129978.0</v>
       </c>
+      <c r="AG223" t="n" s="8">
+        <v>137978.0</v>
+      </c>
+      <c r="AH223" t="n" s="8">
+        <v>144464.0</v>
+      </c>
+      <c r="AI223" t="n" s="8">
+        <v>147847.0</v>
+      </c>
+      <c r="AJ223"/>
     </row>
     <row r="224">
       <c r="A224" t="s" s="7">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B224" t="n" s="8">
         <v>44413.0</v>
@@ -22902,10 +25120,20 @@
       <c r="AF224" t="n" s="8">
         <v>137436.0</v>
       </c>
+      <c r="AG224" t="n" s="8">
+        <v>142432.0</v>
+      </c>
+      <c r="AH224" t="n" s="8">
+        <v>148051.0</v>
+      </c>
+      <c r="AI224" t="n" s="8">
+        <v>151891.0</v>
+      </c>
+      <c r="AJ224"/>
     </row>
     <row r="225">
       <c r="A225" t="s" s="7">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B225" t="n" s="10">
         <v>13.2</v>
@@ -23000,10 +25228,20 @@
       <c r="AF225" t="n" s="10">
         <v>8.1</v>
       </c>
+      <c r="AG225" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AH225" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI225" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ225"/>
     </row>
     <row r="226">
       <c r="A226" t="s" s="7">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B226" t="n" s="8">
         <v>9652.0</v>
@@ -23098,10 +25336,20 @@
       <c r="AF226" t="n" s="8">
         <v>11928.0</v>
       </c>
+      <c r="AG226" t="n" s="8">
+        <v>7521.0</v>
+      </c>
+      <c r="AH226" t="n" s="8">
+        <v>5466.0</v>
+      </c>
+      <c r="AI226" t="n" s="8">
+        <v>5598.0</v>
+      </c>
+      <c r="AJ226"/>
     </row>
     <row r="227">
       <c r="A227" t="s" s="7">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B227" t="n" s="8">
         <v>63211.0</v>
@@ -23196,10 +25444,20 @@
       <c r="AF227" t="n" s="8">
         <v>134632.0</v>
       </c>
+      <c r="AG227" t="n" s="8">
+        <v>142911.0</v>
+      </c>
+      <c r="AH227" t="n" s="8">
+        <v>148810.0</v>
+      </c>
+      <c r="AI227" t="n" s="8">
+        <v>153763.0</v>
+      </c>
+      <c r="AJ227"/>
     </row>
     <row r="228">
       <c r="A228" t="s" s="7">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B228" t="n" s="8">
         <v>72863.0</v>
@@ -23294,10 +25552,20 @@
       <c r="AF228" t="n" s="8">
         <v>146560.0</v>
       </c>
+      <c r="AG228" t="n" s="8">
+        <v>150432.0</v>
+      </c>
+      <c r="AH228" t="n" s="8">
+        <v>154276.0</v>
+      </c>
+      <c r="AI228" t="n" s="8">
+        <v>159361.0</v>
+      </c>
+      <c r="AJ228"/>
     </row>
     <row r="229">
       <c r="A229" t="s" s="7">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B229" t="n" s="10">
         <v>5.6</v>
@@ -23392,10 +25660,20 @@
       <c r="AF229" t="n" s="10">
         <v>5.5</v>
       </c>
+      <c r="AG229" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AH229" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI229" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ229"/>
     </row>
     <row r="230">
       <c r="A230" t="s" s="7">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B230" t="n" s="8">
         <v>2210.0</v>
@@ -23490,10 +25768,20 @@
       <c r="AF230" t="n" s="8">
         <v>4514.0</v>
       </c>
+      <c r="AG230" t="n" s="8">
+        <v>3034.0</v>
+      </c>
+      <c r="AH230" t="n" s="8">
+        <v>2419.0</v>
+      </c>
+      <c r="AI230" t="n" s="8">
+        <v>2563.0</v>
+      </c>
+      <c r="AJ230"/>
     </row>
     <row r="231">
       <c r="A231" t="s" s="7">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B231" t="n" s="8">
         <v>37106.0</v>
@@ -23588,10 +25876,20 @@
       <c r="AF231" t="n" s="8">
         <v>78203.0</v>
       </c>
+      <c r="AG231" t="n" s="8">
+        <v>81680.0</v>
+      </c>
+      <c r="AH231" t="n" s="8">
+        <v>85165.0</v>
+      </c>
+      <c r="AI231" t="n" s="8">
+        <v>87574.0</v>
+      </c>
+      <c r="AJ231"/>
     </row>
     <row r="232">
       <c r="A232" t="s" s="7">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B232" t="n" s="8">
         <v>39316.0</v>
@@ -23686,10 +25984,20 @@
       <c r="AF232" t="n" s="8">
         <v>82717.0</v>
       </c>
+      <c r="AG232" t="n" s="8">
+        <v>84714.0</v>
+      </c>
+      <c r="AH232" t="n" s="8">
+        <v>87584.0</v>
+      </c>
+      <c r="AI232" t="n" s="8">
+        <v>90137.0</v>
+      </c>
+      <c r="AJ232"/>
     </row>
     <row r="233">
       <c r="A233" t="s" s="7">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B233" t="n" s="10">
         <v>3.8</v>
@@ -23784,10 +26092,20 @@
       <c r="AF233" t="n" s="10">
         <v>7.2</v>
       </c>
+      <c r="AG233" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AH233" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI233" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ233"/>
     </row>
     <row r="234">
       <c r="A234" t="s" s="7">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B234" t="n" s="8">
         <v>4785.0</v>
@@ -23882,10 +26200,20 @@
       <c r="AF234" t="n" s="8">
         <v>13217.0</v>
       </c>
+      <c r="AG234" t="n" s="8">
+        <v>7584.0</v>
+      </c>
+      <c r="AH234" t="n" s="8">
+        <v>5803.0</v>
+      </c>
+      <c r="AI234" t="n" s="8">
+        <v>6098.0</v>
+      </c>
+      <c r="AJ234"/>
     </row>
     <row r="235">
       <c r="A235" t="s" s="7">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B235" t="n" s="8">
         <v>119851.0</v>
@@ -23980,10 +26308,20 @@
       <c r="AF235" t="n" s="8">
         <v>170379.0</v>
       </c>
+      <c r="AG235" t="n" s="8">
+        <v>181481.0</v>
+      </c>
+      <c r="AH235" t="n" s="8">
+        <v>189193.0</v>
+      </c>
+      <c r="AI235" t="n" s="8">
+        <v>196466.0</v>
+      </c>
+      <c r="AJ235"/>
     </row>
     <row r="236">
       <c r="A236" t="s" s="7">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B236" t="n" s="8">
         <v>124636.0</v>
@@ -24078,10 +26416,20 @@
       <c r="AF236" t="n" s="8">
         <v>183596.0</v>
       </c>
+      <c r="AG236" t="n" s="8">
+        <v>189065.0</v>
+      </c>
+      <c r="AH236" t="n" s="8">
+        <v>194996.0</v>
+      </c>
+      <c r="AI236" t="n" s="8">
+        <v>202564.0</v>
+      </c>
+      <c r="AJ236"/>
     </row>
     <row r="237">
       <c r="A237" t="s" s="7">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B237" t="n" s="10">
         <v>5.5</v>
@@ -24176,10 +26524,20 @@
       <c r="AF237" t="n" s="10">
         <v>7.6</v>
       </c>
+      <c r="AG237" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AH237" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AI237" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ237"/>
     </row>
     <row r="238">
       <c r="A238" t="s" s="7">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B238" t="n" s="8">
         <v>9292.0</v>
@@ -24274,10 +26632,20 @@
       <c r="AF238" t="n" s="8">
         <v>18014.0</v>
       </c>
+      <c r="AG238" t="n" s="8">
+        <v>10174.0</v>
+      </c>
+      <c r="AH238" t="n" s="8">
+        <v>7248.0</v>
+      </c>
+      <c r="AI238" t="n" s="8">
+        <v>7612.0</v>
+      </c>
+      <c r="AJ238"/>
     </row>
     <row r="239">
       <c r="A239" t="s" s="7">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B239" t="n" s="8">
         <v>160987.0</v>
@@ -24372,10 +26740,20 @@
       <c r="AF239" t="n" s="8">
         <v>219044.0</v>
       </c>
+      <c r="AG239" t="n" s="8">
+        <v>235031.0</v>
+      </c>
+      <c r="AH239" t="n" s="8">
+        <v>256483.0</v>
+      </c>
+      <c r="AI239" t="n" s="8">
+        <v>266027.0</v>
+      </c>
+      <c r="AJ239"/>
     </row>
     <row r="240">
       <c r="A240" t="s" s="7">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B240" t="n" s="8">
         <v>170279.0</v>
@@ -24470,10 +26848,20 @@
       <c r="AF240" t="n" s="8">
         <v>237058.0</v>
       </c>
+      <c r="AG240" t="n" s="8">
+        <v>245205.0</v>
+      </c>
+      <c r="AH240" t="n" s="8">
+        <v>263731.0</v>
+      </c>
+      <c r="AI240" t="n" s="8">
+        <v>273639.0</v>
+      </c>
+      <c r="AJ240"/>
     </row>
     <row r="241">
       <c r="A241" t="s" s="7">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B241" t="n" s="10">
         <v>8.0</v>
@@ -24568,10 +26956,20 @@
       <c r="AF241" t="n" s="10">
         <v>8.3</v>
       </c>
+      <c r="AG241" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AH241" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AI241" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ241"/>
     </row>
     <row r="242">
       <c r="A242" t="s" s="7">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B242" t="n" s="8">
         <v>983.0</v>
@@ -24666,10 +27064,20 @@
       <c r="AF242" t="n" s="8">
         <v>2709.0</v>
       </c>
+      <c r="AG242" t="n" s="8">
+        <v>1896.0</v>
+      </c>
+      <c r="AH242" t="n" s="8">
+        <v>1562.0</v>
+      </c>
+      <c r="AI242" t="n" s="8">
+        <v>1645.0</v>
+      </c>
+      <c r="AJ242"/>
     </row>
     <row r="243">
       <c r="A243" t="s" s="7">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B243" t="n" s="8">
         <v>11357.0</v>
@@ -24764,10 +27172,20 @@
       <c r="AF243" t="n" s="8">
         <v>29868.0</v>
       </c>
+      <c r="AG243" t="n" s="8">
+        <v>32977.0</v>
+      </c>
+      <c r="AH243" t="n" s="8">
+        <v>35663.0</v>
+      </c>
+      <c r="AI243" t="n" s="8">
+        <v>37316.0</v>
+      </c>
+      <c r="AJ243"/>
     </row>
     <row r="244">
       <c r="A244" t="s" s="7">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B244" t="n" s="8">
         <v>12340.0</v>
@@ -24862,10 +27280,20 @@
       <c r="AF244" t="n" s="8">
         <v>32577.0</v>
       </c>
+      <c r="AG244" t="n" s="8">
+        <v>34873.0</v>
+      </c>
+      <c r="AH244" t="n" s="8">
+        <v>37225.0</v>
+      </c>
+      <c r="AI244" t="n" s="8">
+        <v>38961.0</v>
+      </c>
+      <c r="AJ244"/>
     </row>
     <row r="245">
       <c r="A245" t="s" s="7">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B245" t="n" s="10">
         <v>8.1</v>
@@ -24960,10 +27388,20 @@
       <c r="AF245" t="n" s="10">
         <v>6.0</v>
       </c>
+      <c r="AG245" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH245" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI245" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ245"/>
     </row>
     <row r="246">
       <c r="A246" t="s" s="7">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B246" t="n" s="8">
         <v>980.0</v>
@@ -25058,10 +27496,20 @@
       <c r="AF246" t="n" s="8">
         <v>1057.0</v>
       </c>
+      <c r="AG246" t="n" s="8">
+        <v>799.0</v>
+      </c>
+      <c r="AH246" t="n" s="8">
+        <v>585.0</v>
+      </c>
+      <c r="AI246" t="n" s="8">
+        <v>615.0</v>
+      </c>
+      <c r="AJ246"/>
     </row>
     <row r="247">
       <c r="A247" t="s" s="7">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B247" t="n" s="8">
         <v>11128.0</v>
@@ -25156,10 +27604,20 @@
       <c r="AF247" t="n" s="8">
         <v>16545.0</v>
       </c>
+      <c r="AG247" t="n" s="8">
+        <v>16495.0</v>
+      </c>
+      <c r="AH247" t="n" s="8">
+        <v>16583.0</v>
+      </c>
+      <c r="AI247" t="n" s="8">
+        <v>17454.0</v>
+      </c>
+      <c r="AJ247"/>
     </row>
     <row r="248">
       <c r="A248" t="s" s="7">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B248" t="n" s="8">
         <v>12108.0</v>
@@ -25254,10 +27712,20 @@
       <c r="AF248" t="n" s="8">
         <v>17602.0</v>
       </c>
+      <c r="AG248" t="n" s="8">
+        <v>17294.0</v>
+      </c>
+      <c r="AH248" t="n" s="8">
+        <v>17168.0</v>
+      </c>
+      <c r="AI248" t="n" s="8">
+        <v>18069.0</v>
+      </c>
+      <c r="AJ248"/>
     </row>
     <row r="249">
       <c r="A249" t="s" s="7">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B249" t="n" s="10">
         <v>12.3</v>
@@ -25352,10 +27820,20 @@
       <c r="AF249" t="n" s="10">
         <v>6.7</v>
       </c>
+      <c r="AG249" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AH249" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI249" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ249"/>
     </row>
     <row r="250">
       <c r="A250" t="s" s="7">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B250" t="n" s="8">
         <v>1025.0</v>
@@ -25450,10 +27928,20 @@
       <c r="AF250" t="n" s="8">
         <v>549.0</v>
       </c>
+      <c r="AG250" t="n" s="8">
+        <v>419.0</v>
+      </c>
+      <c r="AH250" t="n" s="8">
+        <v>278.0</v>
+      </c>
+      <c r="AI250" t="n" s="8">
+        <v>288.0</v>
+      </c>
+      <c r="AJ250"/>
     </row>
     <row r="251">
       <c r="A251" t="s" s="7">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B251" t="n" s="8">
         <v>7325.0</v>
@@ -25548,10 +28036,20 @@
       <c r="AF251" t="n" s="8">
         <v>7585.0</v>
       </c>
+      <c r="AG251" t="n" s="8">
+        <v>7650.0</v>
+      </c>
+      <c r="AH251" t="n" s="8">
+        <v>7743.0</v>
+      </c>
+      <c r="AI251" t="n" s="8">
+        <v>8175.0</v>
+      </c>
+      <c r="AJ251"/>
     </row>
     <row r="252">
       <c r="A252" t="s" s="7">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B252" t="n" s="8">
         <v>8350.0</v>
@@ -25646,10 +28144,20 @@
       <c r="AF252" t="n" s="8">
         <v>8134.0</v>
       </c>
+      <c r="AG252" t="n" s="8">
+        <v>8069.0</v>
+      </c>
+      <c r="AH252" t="n" s="8">
+        <v>8021.0</v>
+      </c>
+      <c r="AI252" t="n" s="8">
+        <v>8463.0</v>
+      </c>
+      <c r="AJ252"/>
     </row>
     <row r="253">
       <c r="A253" t="s" s="7">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B253" t="n" s="10">
         <v>5.2</v>
@@ -25744,10 +28252,20 @@
       <c r="AF253" t="n" s="10">
         <v>5.0</v>
       </c>
+      <c r="AG253" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AH253" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI253" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ253"/>
     </row>
     <row r="254">
       <c r="A254" t="s" s="7">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B254" t="n" s="8">
         <v>194.0</v>
@@ -25842,10 +28360,20 @@
       <c r="AF254" t="n" s="8">
         <v>227.0</v>
       </c>
+      <c r="AG254" t="n" s="8">
+        <v>174.0</v>
+      </c>
+      <c r="AH254" t="n" s="8">
+        <v>136.0</v>
+      </c>
+      <c r="AI254" t="n" s="8">
+        <v>137.0</v>
+      </c>
+      <c r="AJ254"/>
     </row>
     <row r="255">
       <c r="A255" t="s" s="7">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B255" t="n" s="8">
         <v>3571.0</v>
@@ -25940,10 +28468,20 @@
       <c r="AF255" t="n" s="8">
         <v>4298.0</v>
       </c>
+      <c r="AG255" t="n" s="8">
+        <v>4309.0</v>
+      </c>
+      <c r="AH255" t="n" s="8">
+        <v>4347.0</v>
+      </c>
+      <c r="AI255" t="n" s="8">
+        <v>4470.0</v>
+      </c>
+      <c r="AJ255"/>
     </row>
     <row r="256">
       <c r="A256" t="s" s="7">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B256" t="n" s="8">
         <v>3765.0</v>
@@ -26038,10 +28576,20 @@
       <c r="AF256" t="n" s="8">
         <v>4525.0</v>
       </c>
+      <c r="AG256" t="n" s="8">
+        <v>4483.0</v>
+      </c>
+      <c r="AH256" t="n" s="8">
+        <v>4483.0</v>
+      </c>
+      <c r="AI256" t="n" s="8">
+        <v>4607.0</v>
+      </c>
+      <c r="AJ256"/>
     </row>
     <row r="257">
       <c r="A257" t="s" s="7">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B257" t="n" s="10">
         <v>5.3</v>
@@ -26136,10 +28684,20 @@
       <c r="AF257" t="n" s="10">
         <v>8.0</v>
       </c>
+      <c r="AG257" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AH257" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI257" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ257"/>
     </row>
     <row r="258">
       <c r="A258" t="s" s="7">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B258" t="n" s="8">
         <v>8976.0</v>
@@ -26234,10 +28792,20 @@
       <c r="AF258" t="n" s="8">
         <v>19927.0</v>
       </c>
+      <c r="AG258" t="n" s="8">
+        <v>12061.0</v>
+      </c>
+      <c r="AH258" t="n" s="8">
+        <v>8631.0</v>
+      </c>
+      <c r="AI258" t="n" s="8">
+        <v>8867.0</v>
+      </c>
+      <c r="AJ258"/>
     </row>
     <row r="259">
       <c r="A259" t="s" s="7">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B259" t="n" s="8">
         <v>160719.0</v>
@@ -26332,10 +28900,20 @@
       <c r="AF259" t="n" s="8">
         <v>228207.0</v>
       </c>
+      <c r="AG259" t="n" s="8">
+        <v>243617.0</v>
+      </c>
+      <c r="AH259" t="n" s="8">
+        <v>255130.0</v>
+      </c>
+      <c r="AI259" t="n" s="8">
+        <v>262386.0</v>
+      </c>
+      <c r="AJ259"/>
     </row>
     <row r="260">
       <c r="A260" t="s" s="7">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B260" t="n" s="8">
         <v>169695.0</v>
@@ -26430,10 +29008,20 @@
       <c r="AF260" t="n" s="8">
         <v>248134.0</v>
       </c>
+      <c r="AG260" t="n" s="8">
+        <v>255678.0</v>
+      </c>
+      <c r="AH260" t="n" s="8">
+        <v>263761.0</v>
+      </c>
+      <c r="AI260" t="n" s="8">
+        <v>271253.0</v>
+      </c>
+      <c r="AJ260"/>
     </row>
     <row r="261">
       <c r="A261" t="s" s="7">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B261" t="n" s="10">
         <v>3.9</v>
@@ -26528,10 +29116,20 @@
       <c r="AF261" t="n" s="10">
         <v>4.7</v>
       </c>
+      <c r="AG261" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AH261" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI261" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AJ261"/>
     </row>
     <row r="262">
       <c r="A262" t="s" s="7">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B262" t="n" s="8">
         <v>310.0</v>
@@ -26626,10 +29224,20 @@
       <c r="AF262" t="n" s="8">
         <v>702.0</v>
       </c>
+      <c r="AG262" t="n" s="8">
+        <v>504.0</v>
+      </c>
+      <c r="AH262" t="n" s="8">
+        <v>414.0</v>
+      </c>
+      <c r="AI262" t="n" s="8">
+        <v>443.0</v>
+      </c>
+      <c r="AJ262"/>
     </row>
     <row r="263">
       <c r="A263" t="s" s="7">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B263" t="n" s="8">
         <v>7578.0</v>
@@ -26724,10 +29332,20 @@
       <c r="AF263" t="n" s="8">
         <v>14268.0</v>
       </c>
+      <c r="AG263" t="n" s="8">
+        <v>14879.0</v>
+      </c>
+      <c r="AH263" t="n" s="8">
+        <v>15315.0</v>
+      </c>
+      <c r="AI263" t="n" s="8">
+        <v>15698.0</v>
+      </c>
+      <c r="AJ263"/>
     </row>
     <row r="264">
       <c r="A264" t="s" s="7">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B264" t="n" s="8">
         <v>7888.0</v>
@@ -26822,10 +29440,20 @@
       <c r="AF264" t="n" s="8">
         <v>14970.0</v>
       </c>
+      <c r="AG264" t="n" s="8">
+        <v>15383.0</v>
+      </c>
+      <c r="AH264" t="n" s="8">
+        <v>15729.0</v>
+      </c>
+      <c r="AI264" t="n" s="8">
+        <v>16141.0</v>
+      </c>
+      <c r="AJ264"/>
     </row>
     <row r="265">
       <c r="A265" t="s" s="7">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B265" t="n" s="10">
         <v>6.6</v>
@@ -26920,10 +29548,20 @@
       <c r="AF265" t="n" s="10">
         <v>6.1</v>
       </c>
+      <c r="AG265" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AH265" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AI265" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ265"/>
     </row>
     <row r="266">
       <c r="A266" t="s" s="7">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B266" t="n" s="8">
         <v>854.0</v>
@@ -27018,10 +29656,20 @@
       <c r="AF266" t="n" s="8">
         <v>1975.0</v>
       </c>
+      <c r="AG266" t="n" s="8">
+        <v>1227.0</v>
+      </c>
+      <c r="AH266" t="n" s="8">
+        <v>920.0</v>
+      </c>
+      <c r="AI266" t="n" s="8">
+        <v>987.0</v>
+      </c>
+      <c r="AJ266"/>
     </row>
     <row r="267">
       <c r="A267" t="s" s="7">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B267" t="n" s="8">
         <v>12171.0</v>
@@ -27116,10 +29764,20 @@
       <c r="AF267" t="n" s="8">
         <v>30313.0</v>
       </c>
+      <c r="AG267" t="n" s="8">
+        <v>32560.0</v>
+      </c>
+      <c r="AH267" t="n" s="8">
+        <v>33616.0</v>
+      </c>
+      <c r="AI267" t="n" s="8">
+        <v>34477.0</v>
+      </c>
+      <c r="AJ267"/>
     </row>
     <row r="268">
       <c r="A268" t="s" s="7">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B268" t="n" s="8">
         <v>13025.0</v>
@@ -27214,10 +29872,20 @@
       <c r="AF268" t="n" s="8">
         <v>32288.0</v>
       </c>
+      <c r="AG268" t="n" s="8">
+        <v>33787.0</v>
+      </c>
+      <c r="AH268" t="n" s="8">
+        <v>34536.0</v>
+      </c>
+      <c r="AI268" t="n" s="8">
+        <v>35464.0</v>
+      </c>
+      <c r="AJ268"/>
     </row>
     <row r="269">
       <c r="A269" t="s" s="7">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B269" t="n" s="10">
         <v>7.0</v>
@@ -27312,10 +29980,20 @@
       <c r="AF269" t="n" s="10">
         <v>6.1</v>
       </c>
+      <c r="AG269" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH269" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI269" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ269"/>
     </row>
     <row r="270">
       <c r="A270" t="s" s="7">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B270" t="n" s="8">
         <v>526.0</v>
@@ -27410,10 +30088,20 @@
       <c r="AF270" t="n" s="8">
         <v>579.0</v>
       </c>
+      <c r="AG270" t="n" s="8">
+        <v>440.0</v>
+      </c>
+      <c r="AH270" t="n" s="8">
+        <v>322.0</v>
+      </c>
+      <c r="AI270" t="n" s="8">
+        <v>324.0</v>
+      </c>
+      <c r="AJ270"/>
     </row>
     <row r="271">
       <c r="A271" t="s" s="7">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B271" t="n" s="8">
         <v>6937.0</v>
@@ -27508,10 +30196,20 @@
       <c r="AF271" t="n" s="8">
         <v>8840.0</v>
       </c>
+      <c r="AG271" t="n" s="8">
+        <v>9119.0</v>
+      </c>
+      <c r="AH271" t="n" s="8">
+        <v>9292.0</v>
+      </c>
+      <c r="AI271" t="n" s="8">
+        <v>9535.0</v>
+      </c>
+      <c r="AJ271"/>
     </row>
     <row r="272">
       <c r="A272" t="s" s="7">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B272" t="n" s="8">
         <v>7463.0</v>
@@ -27606,6 +30304,16 @@
       <c r="AF272" t="n" s="8">
         <v>9419.0</v>
       </c>
+      <c r="AG272" t="n" s="8">
+        <v>9559.0</v>
+      </c>
+      <c r="AH272" t="n" s="8">
+        <v>9614.0</v>
+      </c>
+      <c r="AI272" t="n" s="8">
+        <v>9859.0</v>
+      </c>
+      <c r="AJ272"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -27616,7 +30324,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: December 27, 2024 (12:54:19 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: January 6, 2025 (01:03:45 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
